--- a/成王败寇.xlsx
+++ b/成王败寇.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Coding\Github\WinnerTakeAll\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89D70FD3-99F1-4216-9F36-D2A0D81DEFF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FFB0238-53EF-4DA6-9A07-AF08F7725F0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="765" yWindow="1635" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="14">
   <si>
     <t>时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -271,7 +271,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="CCE8CF"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -529,7 +529,7 @@
   <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -566,35 +566,56 @@
       <c r="B3" s="3" t="s">
         <v>4</v>
       </c>
+      <c r="C3" s="5" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B4" s="3" t="s">
         <v>5</v>
       </c>
+      <c r="C4" s="5" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B5" s="3" t="s">
         <v>6</v>
       </c>
+      <c r="C5" s="5" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B6" s="3" t="s">
         <v>7</v>
       </c>
+      <c r="C6" s="5" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B7" s="3" t="s">
         <v>8</v>
       </c>
+      <c r="C7" s="5" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B8" s="3" t="s">
         <v>9</v>
       </c>
+      <c r="C8" s="5" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B9" s="3" t="s">
         <v>10</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">

--- a/成王败寇.xlsx
+++ b/成王败寇.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Coding\Github\WinnerTakeAll\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FFB0238-53EF-4DA6-9A07-AF08F7725F0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01321FF9-8F9A-4BBE-A215-FECC1917740B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="765" yWindow="1635" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="14">
   <si>
     <t>时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -114,7 +114,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -130,6 +130,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -161,7 +167,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -178,80 +184,18 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -526,10 +470,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -553,70 +497,54 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="4">
-        <v>46042</v>
-      </c>
-      <c r="B2" s="3" t="s">
+        <v>46043</v>
+      </c>
+      <c r="B2" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="5" t="s">
-        <v>13</v>
-      </c>
+      <c r="C2" s="6"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="5" t="s">
-        <v>13</v>
-      </c>
+      <c r="C3" s="6"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B4" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="5" t="s">
-        <v>13</v>
-      </c>
+      <c r="C4" s="6"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B5" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="5" t="s">
-        <v>13</v>
-      </c>
+      <c r="C5" s="6"/>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B6" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="5" t="s">
-        <v>13</v>
-      </c>
+      <c r="C6" s="6"/>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B7" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="5" t="s">
-        <v>13</v>
-      </c>
+      <c r="C7" s="6"/>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B8" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="5" t="s">
-        <v>13</v>
-      </c>
+      <c r="C8" s="6"/>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B9" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="5" t="s">
-        <v>13</v>
-      </c>
+      <c r="C9" s="6"/>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B10" s="3" t="s">
@@ -629,7 +557,159 @@
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B12" s="3">
+      <c r="A12" s="4">
+        <v>46043</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B13" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B15" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B16" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B17" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B18" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B19" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C19" s="6"/>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B20" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B21" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22" s="4">
+        <v>46042</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B23" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B25" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B26" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B27" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B28" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B29" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B30" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B31" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B32" s="3">
         <v>11</v>
       </c>
     </row>

--- a/成王败寇.xlsx
+++ b/成王败寇.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Coding\Github\WinnerTakeAll\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01321FF9-8F9A-4BBE-A215-FECC1917740B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FF8376B-10E5-4546-B3C2-7ECCDC57EC88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="14">
   <si>
     <t>时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -196,6 +196,74 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -215,7 +283,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="CCE8CF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -470,10 +538,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C32"/>
+  <dimension ref="A1:C42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="L14" sqref="L14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -558,7 +626,7 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" s="4">
-        <v>46043</v>
+        <v>46044</v>
       </c>
       <c r="B12" s="7" t="s">
         <v>3</v>
@@ -619,12 +687,17 @@
       <c r="B19" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C19" s="6"/>
+      <c r="C19" s="5" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B20" s="3" t="s">
         <v>11</v>
       </c>
+      <c r="C20" s="5" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B21" s="3" t="s">
@@ -633,7 +706,7 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" s="4">
-        <v>46042</v>
+        <v>46043</v>
       </c>
       <c r="B22" s="7" t="s">
         <v>3</v>
@@ -702,6 +775,9 @@
       <c r="B30" s="3" t="s">
         <v>11</v>
       </c>
+      <c r="C30" s="5" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B31" s="3" t="s">
@@ -709,7 +785,84 @@
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B32" s="3">
+      <c r="A32" s="4">
+        <v>46042</v>
+      </c>
+      <c r="B32" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="33" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B33" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="34" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B34" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C34" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="35" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B35" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C35" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="36" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B36" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C36" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="37" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B37" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C37" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="38" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B38" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C38" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="39" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B39" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C39" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="40" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B40" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="41" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B41" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="42" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B42" s="3">
         <v>11</v>
       </c>
     </row>

--- a/成王败寇.xlsx
+++ b/成王败寇.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Coding\Github\WinnerTakeAll\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FF8376B-10E5-4546-B3C2-7ECCDC57EC88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD6CE9EB-5A24-4F39-B6F6-C8FACE882821}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="15">
   <si>
     <t>时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -83,6 +83,10 @@
   </si>
   <si>
     <t>完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11.编程任务</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -283,7 +287,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="CCE8CF"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -538,10 +542,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C42"/>
+  <dimension ref="A1:C54"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L14" sqref="L14"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -625,19 +629,16 @@
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12" s="4">
-        <v>46044</v>
-      </c>
-      <c r="B12" s="7" t="s">
+      <c r="B12" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13" s="4">
+        <v>46045</v>
+      </c>
+      <c r="B13" s="7" t="s">
         <v>3</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B13" s="3" t="s">
-        <v>4</v>
       </c>
       <c r="C13" s="5" t="s">
         <v>13</v>
@@ -645,7 +646,7 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B14" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C14" s="5" t="s">
         <v>13</v>
@@ -653,7 +654,7 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B15" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C15" s="5" t="s">
         <v>13</v>
@@ -661,7 +662,7 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B16" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C16" s="5" t="s">
         <v>13</v>
@@ -669,7 +670,7 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B17" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C17" s="5" t="s">
         <v>13</v>
@@ -677,7 +678,7 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B18" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C18" s="5" t="s">
         <v>13</v>
@@ -685,7 +686,7 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B19" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C19" s="5" t="s">
         <v>13</v>
@@ -693,7 +694,7 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B20" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C20" s="5" t="s">
         <v>13</v>
@@ -701,31 +702,28 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B21" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B22" s="3" t="s">
         <v>12</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A22" s="4">
-        <v>46043</v>
-      </c>
-      <c r="B22" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="C22" s="5" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B23" s="3" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="C23" s="5" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B24" s="3" t="s">
-        <v>5</v>
+      <c r="A24" s="4">
+        <v>46044</v>
+      </c>
+      <c r="B24" s="7" t="s">
+        <v>3</v>
       </c>
       <c r="C24" s="5" t="s">
         <v>13</v>
@@ -733,7 +731,7 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B25" s="3" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C25" s="5" t="s">
         <v>13</v>
@@ -741,7 +739,7 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B26" s="3" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C26" s="5" t="s">
         <v>13</v>
@@ -749,7 +747,7 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B27" s="3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C27" s="5" t="s">
         <v>13</v>
@@ -757,7 +755,7 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B28" s="3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C28" s="5" t="s">
         <v>13</v>
@@ -765,7 +763,7 @@
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B29" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C29" s="5" t="s">
         <v>13</v>
@@ -773,7 +771,7 @@
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B30" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C30" s="5" t="s">
         <v>13</v>
@@ -781,88 +779,184 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B31" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B32" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B33" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A32" s="4">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A34" s="4">
+        <v>46043</v>
+      </c>
+      <c r="B34" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C34" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B35" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C35" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B36" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C36" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B37" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C37" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B38" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C38" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B39" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C39" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B40" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C40" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B41" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C41" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B42" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C42" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B43" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A44" s="4">
         <v>46042</v>
       </c>
-      <c r="B32" s="7" t="s">
+      <c r="B44" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C32" s="5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="33" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B33" s="3" t="s">
+      <c r="C44" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B45" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C33" s="5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="34" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B34" s="3" t="s">
+      <c r="C45" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B46" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C34" s="5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="35" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B35" s="3" t="s">
+      <c r="C46" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B47" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C35" s="5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="36" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B36" s="3" t="s">
+      <c r="C47" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B48" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C36" s="5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="37" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B37" s="3" t="s">
+      <c r="C48" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="49" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B49" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C37" s="5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="38" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B38" s="3" t="s">
+      <c r="C49" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="50" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B50" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C38" s="5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="39" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B39" s="3" t="s">
+      <c r="C50" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="51" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B51" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C39" s="5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="40" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B40" s="3" t="s">
+      <c r="C51" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="52" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B52" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="41" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B41" s="3" t="s">
+    <row r="53" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B53" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="42" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B42" s="3">
+    <row r="54" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B54" s="3">
         <v>11</v>
       </c>
     </row>

--- a/成王败寇.xlsx
+++ b/成王败寇.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Coding\Github\WinnerTakeAll\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD6CE9EB-5A24-4F39-B6F6-C8FACE882821}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B750F85-D5CD-4E1C-8F81-13A687E2BBBB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="15">
   <si>
     <t>时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -287,7 +287,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="CCE8CF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -542,10 +542,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C54"/>
+  <dimension ref="A1:C76"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -635,7 +635,7 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" s="4">
-        <v>46045</v>
+        <v>46047</v>
       </c>
       <c r="B13" s="7" t="s">
         <v>3</v>
@@ -704,6 +704,9 @@
       <c r="B21" s="3" t="s">
         <v>11</v>
       </c>
+      <c r="C21" s="5" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B22" s="3" t="s">
@@ -720,7 +723,7 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" s="4">
-        <v>46044</v>
+        <v>46046</v>
       </c>
       <c r="B24" s="7" t="s">
         <v>3</v>
@@ -799,19 +802,19 @@
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A34" s="4">
-        <v>46043</v>
-      </c>
-      <c r="B34" s="7" t="s">
+      <c r="B34" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C34" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A35" s="4">
+        <v>46045</v>
+      </c>
+      <c r="B35" s="7" t="s">
         <v>3</v>
-      </c>
-      <c r="C34" s="5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B35" s="3" t="s">
-        <v>4</v>
       </c>
       <c r="C35" s="5" t="s">
         <v>13</v>
@@ -819,7 +822,7 @@
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B36" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C36" s="5" t="s">
         <v>13</v>
@@ -827,7 +830,7 @@
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B37" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C37" s="5" t="s">
         <v>13</v>
@@ -835,7 +838,7 @@
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B38" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C38" s="5" t="s">
         <v>13</v>
@@ -843,7 +846,7 @@
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B39" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C39" s="5" t="s">
         <v>13</v>
@@ -851,7 +854,7 @@
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B40" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C40" s="5" t="s">
         <v>13</v>
@@ -859,7 +862,7 @@
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B41" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C41" s="5" t="s">
         <v>13</v>
@@ -867,7 +870,7 @@
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B42" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C42" s="5" t="s">
         <v>13</v>
@@ -875,31 +878,28 @@
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B43" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B44" s="3" t="s">
         <v>12</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A44" s="4">
-        <v>46042</v>
-      </c>
-      <c r="B44" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="C44" s="5" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B45" s="3" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="C45" s="5" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B46" s="3" t="s">
-        <v>5</v>
+      <c r="A46" s="4">
+        <v>46044</v>
+      </c>
+      <c r="B46" s="7" t="s">
+        <v>3</v>
       </c>
       <c r="C46" s="5" t="s">
         <v>13</v>
@@ -907,7 +907,7 @@
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B47" s="3" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C47" s="5" t="s">
         <v>13</v>
@@ -915,48 +915,224 @@
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C48" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B49" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C49" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B50" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C48" s="5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="49" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B49" s="3" t="s">
+      <c r="C50" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B51" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C49" s="5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="50" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B50" s="3" t="s">
+      <c r="C51" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B52" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C50" s="5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="51" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B51" s="3" t="s">
+      <c r="C52" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B53" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C51" s="5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="52" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B52" s="3" t="s">
+      <c r="C53" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B54" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="53" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B53" s="3" t="s">
+      <c r="C54" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B55" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="54" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B54" s="3">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A56" s="4">
+        <v>46043</v>
+      </c>
+      <c r="B56" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C56" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B57" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C57" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C58" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B59" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C59" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B60" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C60" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B61" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C61" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B62" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C62" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B63" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C63" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B64" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C64" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B65" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A66" s="4">
+        <v>46042</v>
+      </c>
+      <c r="B66" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C66" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B67" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C67" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B68" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C68" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B69" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C69" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B70" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C70" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B71" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C71" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B72" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C72" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B73" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C73" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B74" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B75" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B76" s="3">
         <v>11</v>
       </c>
     </row>

--- a/成王败寇.xlsx
+++ b/成王败寇.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Coding\Github\WinnerTakeAll\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B750F85-D5CD-4E1C-8F81-13A687E2BBBB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9955772F-0037-4C7E-B067-0E7BF08F7E2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="15">
   <si>
     <t>时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -287,7 +287,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="CCE8CF"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -542,10 +542,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C76"/>
+  <dimension ref="A1:C109"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -635,7 +635,7 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" s="4">
-        <v>46047</v>
+        <v>46050</v>
       </c>
       <c r="B13" s="7" t="s">
         <v>3</v>
@@ -704,9 +704,6 @@
       <c r="B21" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C21" s="5" t="s">
-        <v>13</v>
-      </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B22" s="3" t="s">
@@ -723,7 +720,7 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" s="4">
-        <v>46046</v>
+        <v>46049</v>
       </c>
       <c r="B24" s="7" t="s">
         <v>3</v>
@@ -811,7 +808,7 @@
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" s="4">
-        <v>46045</v>
+        <v>46048</v>
       </c>
       <c r="B35" s="7" t="s">
         <v>3</v>
@@ -832,25 +829,19 @@
       <c r="B37" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C37" s="5" t="s">
-        <v>13</v>
-      </c>
+      <c r="C37" s="6"/>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B38" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C38" s="5" t="s">
-        <v>13</v>
-      </c>
+      <c r="C38" s="6"/>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B39" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C39" s="5" t="s">
-        <v>13</v>
-      </c>
+      <c r="C39" s="6"/>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B40" s="3" t="s">
@@ -872,9 +863,7 @@
       <c r="B42" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C42" s="5" t="s">
-        <v>13</v>
-      </c>
+      <c r="C42" s="6"/>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B43" s="3" t="s">
@@ -890,13 +879,10 @@
       <c r="B45" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C45" s="5" t="s">
-        <v>13</v>
-      </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A46" s="4">
-        <v>46044</v>
+        <v>46047</v>
       </c>
       <c r="B46" s="7" t="s">
         <v>3</v>
@@ -975,19 +961,19 @@
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A56" s="4">
-        <v>46043</v>
-      </c>
-      <c r="B56" s="7" t="s">
+      <c r="B56" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C56" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A57" s="4">
+        <v>46046</v>
+      </c>
+      <c r="B57" s="7" t="s">
         <v>3</v>
-      </c>
-      <c r="C56" s="5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B57" s="3" t="s">
-        <v>4</v>
       </c>
       <c r="C57" s="5" t="s">
         <v>13</v>
@@ -995,7 +981,7 @@
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B58" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C58" s="5" t="s">
         <v>13</v>
@@ -1003,7 +989,7 @@
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B59" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C59" s="5" t="s">
         <v>13</v>
@@ -1011,7 +997,7 @@
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B60" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C60" s="5" t="s">
         <v>13</v>
@@ -1019,7 +1005,7 @@
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B61" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C61" s="5" t="s">
         <v>13</v>
@@ -1027,7 +1013,7 @@
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B62" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C62" s="5" t="s">
         <v>13</v>
@@ -1035,7 +1021,7 @@
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B63" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C63" s="5" t="s">
         <v>13</v>
@@ -1043,7 +1029,7 @@
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B64" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C64" s="5" t="s">
         <v>13</v>
@@ -1051,31 +1037,31 @@
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B65" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C65" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B66" s="3" t="s">
         <v>12</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A66" s="4">
-        <v>46042</v>
-      </c>
-      <c r="B66" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="C66" s="5" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B67" s="3" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="C67" s="5" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B68" s="3" t="s">
-        <v>5</v>
+      <c r="A68" s="4">
+        <v>46045</v>
+      </c>
+      <c r="B68" s="7" t="s">
+        <v>3</v>
       </c>
       <c r="C68" s="5" t="s">
         <v>13</v>
@@ -1083,7 +1069,7 @@
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B69" s="3" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C69" s="5" t="s">
         <v>13</v>
@@ -1091,7 +1077,7 @@
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B70" s="3" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C70" s="5" t="s">
         <v>13</v>
@@ -1099,7 +1085,7 @@
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B71" s="3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C71" s="5" t="s">
         <v>13</v>
@@ -1107,7 +1093,7 @@
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B72" s="3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C72" s="5" t="s">
         <v>13</v>
@@ -1115,7 +1101,7 @@
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B73" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C73" s="5" t="s">
         <v>13</v>
@@ -1123,16 +1109,277 @@
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B74" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
+      </c>
+      <c r="C74" s="5" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B75" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C75" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B76" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B77" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B76" s="3">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B78" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C78" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A79" s="4">
+        <v>46044</v>
+      </c>
+      <c r="B79" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C79" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B80" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C80" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C81" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B82" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C82" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B83" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C83" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B84" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C84" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B85" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C85" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B86" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C86" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B87" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C87" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B88" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A89" s="4">
+        <v>46043</v>
+      </c>
+      <c r="B89" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C89" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B90" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C90" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C91" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B92" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C92" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B93" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C93" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B94" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C94" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B95" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C95" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B96" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C96" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B97" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C97" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B98" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A99" s="4">
+        <v>46042</v>
+      </c>
+      <c r="B99" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C99" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C100" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C101" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B102" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C102" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B103" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C103" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B104" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C104" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B105" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C105" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B106" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C106" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B107" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B108" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B109" s="3">
         <v>11</v>
       </c>
     </row>

--- a/成王败寇.xlsx
+++ b/成王败寇.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Coding\Github\WinnerTakeAll\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9955772F-0037-4C7E-B067-0E7BF08F7E2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6C5FE00-BFBF-452D-B018-6368BC3222FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="15">
   <si>
     <t>时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -287,7 +287,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="CCE8CF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -542,10 +542,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C109"/>
+  <dimension ref="A1:C142"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -635,7 +635,7 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" s="4">
-        <v>46050</v>
+        <v>46053</v>
       </c>
       <c r="B13" s="7" t="s">
         <v>3</v>
@@ -672,9 +672,7 @@
       <c r="B17" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C17" s="5" t="s">
-        <v>13</v>
-      </c>
+      <c r="C17" s="6"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B18" s="3" t="s">
@@ -720,7 +718,7 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" s="4">
-        <v>46049</v>
+        <v>46052</v>
       </c>
       <c r="B24" s="7" t="s">
         <v>3</v>
@@ -789,9 +787,6 @@
       <c r="B32" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C32" s="5" t="s">
-        <v>13</v>
-      </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B33" s="3" t="s">
@@ -808,7 +803,7 @@
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" s="4">
-        <v>46048</v>
+        <v>46051</v>
       </c>
       <c r="B35" s="7" t="s">
         <v>3</v>
@@ -829,19 +824,25 @@
       <c r="B37" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C37" s="6"/>
+      <c r="C37" s="5" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B38" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C38" s="6"/>
+      <c r="C38" s="5" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B39" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C39" s="6"/>
+      <c r="C39" s="5" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B40" s="3" t="s">
@@ -863,7 +864,9 @@
       <c r="B42" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C42" s="6"/>
+      <c r="C42" s="5" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B43" s="3" t="s">
@@ -882,7 +885,7 @@
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A46" s="4">
-        <v>46047</v>
+        <v>46050</v>
       </c>
       <c r="B46" s="7" t="s">
         <v>3</v>
@@ -951,9 +954,6 @@
       <c r="B54" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C54" s="5" t="s">
-        <v>13</v>
-      </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B55" s="3" t="s">
@@ -970,7 +970,7 @@
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A57" s="4">
-        <v>46046</v>
+        <v>46049</v>
       </c>
       <c r="B57" s="7" t="s">
         <v>3</v>
@@ -1058,7 +1058,7 @@
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A68" s="4">
-        <v>46045</v>
+        <v>46048</v>
       </c>
       <c r="B68" s="7" t="s">
         <v>3</v>
@@ -1079,25 +1079,19 @@
       <c r="B70" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C70" s="5" t="s">
-        <v>13</v>
-      </c>
+      <c r="C70" s="6"/>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B71" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C71" s="5" t="s">
-        <v>13</v>
-      </c>
+      <c r="C71" s="6"/>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B72" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C72" s="5" t="s">
-        <v>13</v>
-      </c>
+      <c r="C72" s="6"/>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B73" s="3" t="s">
@@ -1119,9 +1113,7 @@
       <c r="B75" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C75" s="5" t="s">
-        <v>13</v>
-      </c>
+      <c r="C75" s="6"/>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B76" s="3" t="s">
@@ -1137,13 +1129,10 @@
       <c r="B78" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C78" s="5" t="s">
-        <v>13</v>
-      </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A79" s="4">
-        <v>46044</v>
+        <v>46047</v>
       </c>
       <c r="B79" s="7" t="s">
         <v>3</v>
@@ -1222,19 +1211,19 @@
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A89" s="4">
-        <v>46043</v>
-      </c>
-      <c r="B89" s="7" t="s">
+      <c r="B89" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C89" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A90" s="4">
+        <v>46046</v>
+      </c>
+      <c r="B90" s="7" t="s">
         <v>3</v>
-      </c>
-      <c r="C89" s="5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B90" s="3" t="s">
-        <v>4</v>
       </c>
       <c r="C90" s="5" t="s">
         <v>13</v>
@@ -1242,7 +1231,7 @@
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B91" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C91" s="5" t="s">
         <v>13</v>
@@ -1250,7 +1239,7 @@
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B92" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C92" s="5" t="s">
         <v>13</v>
@@ -1258,7 +1247,7 @@
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B93" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C93" s="5" t="s">
         <v>13</v>
@@ -1266,7 +1255,7 @@
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B94" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C94" s="5" t="s">
         <v>13</v>
@@ -1274,7 +1263,7 @@
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B95" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C95" s="5" t="s">
         <v>13</v>
@@ -1282,7 +1271,7 @@
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B96" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C96" s="5" t="s">
         <v>13</v>
@@ -1290,7 +1279,7 @@
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B97" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C97" s="5" t="s">
         <v>13</v>
@@ -1298,31 +1287,31 @@
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B98" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C98" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B99" s="3" t="s">
         <v>12</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A99" s="4">
-        <v>46042</v>
-      </c>
-      <c r="B99" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="C99" s="5" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B100" s="3" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="C100" s="5" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B101" s="3" t="s">
-        <v>5</v>
+      <c r="A101" s="4">
+        <v>46045</v>
+      </c>
+      <c r="B101" s="7" t="s">
+        <v>3</v>
       </c>
       <c r="C101" s="5" t="s">
         <v>13</v>
@@ -1330,7 +1319,7 @@
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B102" s="3" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C102" s="5" t="s">
         <v>13</v>
@@ -1338,7 +1327,7 @@
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B103" s="3" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C103" s="5" t="s">
         <v>13</v>
@@ -1346,7 +1335,7 @@
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B104" s="3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C104" s="5" t="s">
         <v>13</v>
@@ -1354,7 +1343,7 @@
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B105" s="3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C105" s="5" t="s">
         <v>13</v>
@@ -1362,7 +1351,7 @@
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B106" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C106" s="5" t="s">
         <v>13</v>
@@ -1370,16 +1359,277 @@
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B107" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
+      </c>
+      <c r="C107" s="5" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B108" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C108" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B109" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B110" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B109" s="3">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B111" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C111" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A112" s="4">
+        <v>46044</v>
+      </c>
+      <c r="B112" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C112" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B113" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C113" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B114" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C114" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B115" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C115" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B116" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C116" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B117" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C117" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B118" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C118" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B119" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C119" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B120" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C120" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B121" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A122" s="4">
+        <v>46043</v>
+      </c>
+      <c r="B122" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C122" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B123" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C123" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B124" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C124" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B125" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C125" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B126" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C126" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B127" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C127" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B128" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C128" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B129" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C129" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B130" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C130" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B131" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A132" s="4">
+        <v>46042</v>
+      </c>
+      <c r="B132" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C132" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B133" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C133" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B134" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C134" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B135" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C135" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B136" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C136" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B137" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C137" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B138" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C138" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B139" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C139" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B140" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B141" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B142" s="3">
         <v>11</v>
       </c>
     </row>

--- a/成王败寇.xlsx
+++ b/成王败寇.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Coding\Github\WinnerTakeAll\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6C5FE00-BFBF-452D-B018-6368BC3222FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D86BD5A9-9E66-41D0-82B8-1DDD1A12E5FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="15">
   <si>
     <t>时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -542,10 +542,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C142"/>
+  <dimension ref="A1:C153"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+      <selection activeCell="E21" sqref="E20:E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -569,7 +569,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="4">
-        <v>46043</v>
+        <v>46054</v>
       </c>
       <c r="B2" s="7" t="s">
         <v>3</v>
@@ -635,7 +635,7 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" s="4">
-        <v>46053</v>
+        <v>46054</v>
       </c>
       <c r="B13" s="7" t="s">
         <v>3</v>
@@ -672,7 +672,9 @@
       <c r="B17" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C17" s="6"/>
+      <c r="C17" s="5" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B18" s="3" t="s">
@@ -718,7 +720,7 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" s="4">
-        <v>46052</v>
+        <v>46053</v>
       </c>
       <c r="B24" s="7" t="s">
         <v>3</v>
@@ -787,6 +789,9 @@
       <c r="B32" s="3" t="s">
         <v>11</v>
       </c>
+      <c r="C32" s="5" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B33" s="3" t="s">
@@ -803,7 +808,7 @@
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" s="4">
-        <v>46051</v>
+        <v>46052</v>
       </c>
       <c r="B35" s="7" t="s">
         <v>3</v>
@@ -882,10 +887,13 @@
       <c r="B45" s="3" t="s">
         <v>14</v>
       </c>
+      <c r="C45" s="5" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A46" s="4">
-        <v>46050</v>
+        <v>46051</v>
       </c>
       <c r="B46" s="7" t="s">
         <v>3</v>
@@ -964,13 +972,10 @@
       <c r="B56" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C56" s="5" t="s">
-        <v>13</v>
-      </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A57" s="4">
-        <v>46049</v>
+        <v>46050</v>
       </c>
       <c r="B57" s="7" t="s">
         <v>3</v>
@@ -1039,9 +1044,6 @@
       <c r="B65" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C65" s="5" t="s">
-        <v>13</v>
-      </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B66" s="3" t="s">
@@ -1058,7 +1060,7 @@
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A68" s="4">
-        <v>46048</v>
+        <v>46049</v>
       </c>
       <c r="B68" s="7" t="s">
         <v>3</v>
@@ -1079,19 +1081,25 @@
       <c r="B70" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C70" s="6"/>
+      <c r="C70" s="5" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B71" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C71" s="6"/>
+      <c r="C71" s="5" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B72" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C72" s="6"/>
+      <c r="C72" s="5" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B73" s="3" t="s">
@@ -1113,12 +1121,17 @@
       <c r="B75" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C75" s="6"/>
+      <c r="C75" s="5" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B76" s="3" t="s">
         <v>11</v>
       </c>
+      <c r="C76" s="5" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B77" s="3" t="s">
@@ -1129,10 +1142,13 @@
       <c r="B78" s="3" t="s">
         <v>14</v>
       </c>
+      <c r="C78" s="5" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A79" s="4">
-        <v>46047</v>
+        <v>46048</v>
       </c>
       <c r="B79" s="7" t="s">
         <v>3</v>
@@ -1153,25 +1169,19 @@
       <c r="B81" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C81" s="5" t="s">
-        <v>13</v>
-      </c>
+      <c r="C81" s="6"/>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B82" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C82" s="5" t="s">
-        <v>13</v>
-      </c>
+      <c r="C82" s="6"/>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B83" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C83" s="5" t="s">
-        <v>13</v>
-      </c>
+      <c r="C83" s="6"/>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B84" s="3" t="s">
@@ -1193,17 +1203,12 @@
       <c r="B86" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C86" s="5" t="s">
-        <v>13</v>
-      </c>
+      <c r="C86" s="6"/>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B87" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C87" s="5" t="s">
-        <v>13</v>
-      </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B88" s="3" t="s">
@@ -1214,13 +1219,10 @@
       <c r="B89" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C89" s="5" t="s">
-        <v>13</v>
-      </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A90" s="4">
-        <v>46046</v>
+        <v>46047</v>
       </c>
       <c r="B90" s="7" t="s">
         <v>3</v>
@@ -1308,7 +1310,7 @@
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A101" s="4">
-        <v>46045</v>
+        <v>46046</v>
       </c>
       <c r="B101" s="7" t="s">
         <v>3</v>
@@ -1377,6 +1379,9 @@
       <c r="B109" s="3" t="s">
         <v>11</v>
       </c>
+      <c r="C109" s="5" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B110" s="3" t="s">
@@ -1393,7 +1398,7 @@
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A112" s="4">
-        <v>46044</v>
+        <v>46045</v>
       </c>
       <c r="B112" s="7" t="s">
         <v>3</v>
@@ -1462,9 +1467,6 @@
       <c r="B120" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C120" s="5" t="s">
-        <v>13</v>
-      </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B121" s="3" t="s">
@@ -1472,19 +1474,19 @@
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A122" s="4">
-        <v>46043</v>
-      </c>
-      <c r="B122" s="7" t="s">
+      <c r="B122" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C122" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A123" s="4">
+        <v>46044</v>
+      </c>
+      <c r="B123" s="7" t="s">
         <v>3</v>
-      </c>
-      <c r="C122" s="5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B123" s="3" t="s">
-        <v>4</v>
       </c>
       <c r="C123" s="5" t="s">
         <v>13</v>
@@ -1492,7 +1494,7 @@
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B124" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C124" s="5" t="s">
         <v>13</v>
@@ -1500,7 +1502,7 @@
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B125" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C125" s="5" t="s">
         <v>13</v>
@@ -1508,7 +1510,7 @@
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B126" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C126" s="5" t="s">
         <v>13</v>
@@ -1516,7 +1518,7 @@
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B127" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C127" s="5" t="s">
         <v>13</v>
@@ -1524,7 +1526,7 @@
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B128" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C128" s="5" t="s">
         <v>13</v>
@@ -1532,7 +1534,7 @@
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B129" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C129" s="5" t="s">
         <v>13</v>
@@ -1540,7 +1542,7 @@
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B130" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C130" s="5" t="s">
         <v>13</v>
@@ -1548,23 +1550,23 @@
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B131" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C131" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B132" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A132" s="4">
-        <v>46042</v>
-      </c>
-      <c r="B132" s="7" t="s">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A133" s="4">
+        <v>46043</v>
+      </c>
+      <c r="B133" s="7" t="s">
         <v>3</v>
-      </c>
-      <c r="C132" s="5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B133" s="3" t="s">
-        <v>4</v>
       </c>
       <c r="C133" s="5" t="s">
         <v>13</v>
@@ -1572,7 +1574,7 @@
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B134" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C134" s="5" t="s">
         <v>13</v>
@@ -1580,7 +1582,7 @@
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B135" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C135" s="5" t="s">
         <v>13</v>
@@ -1588,7 +1590,7 @@
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B136" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C136" s="5" t="s">
         <v>13</v>
@@ -1596,7 +1598,7 @@
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B137" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C137" s="5" t="s">
         <v>13</v>
@@ -1604,7 +1606,7 @@
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B138" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C138" s="5" t="s">
         <v>13</v>
@@ -1612,7 +1614,7 @@
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B139" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C139" s="5" t="s">
         <v>13</v>
@@ -1620,16 +1622,104 @@
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B140" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
+      </c>
+      <c r="C140" s="5" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B141" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C141" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B142" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B142" s="3">
+    <row r="143" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A143" s="4">
+        <v>46042</v>
+      </c>
+      <c r="B143" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C143" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B144" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C144" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="145" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B145" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C145" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="146" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B146" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C146" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="147" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B147" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C147" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="148" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B148" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C148" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="149" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B149" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C149" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="150" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B150" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C150" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="151" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B151" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="152" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B152" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="153" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B153" s="3">
         <v>11</v>
       </c>
     </row>

--- a/成王败寇.xlsx
+++ b/成王败寇.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Coding\Github\WinnerTakeAll\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D86BD5A9-9E66-41D0-82B8-1DDD1A12E5FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA874055-307F-448A-8F70-645650422EA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="15">
   <si>
     <t>时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -542,10 +542,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C153"/>
+  <dimension ref="A1:C175"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E21" sqref="E20:E21"/>
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -635,7 +635,7 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" s="4">
-        <v>46054</v>
+        <v>46057</v>
       </c>
       <c r="B13" s="7" t="s">
         <v>3</v>
@@ -672,9 +672,7 @@
       <c r="B17" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C17" s="5" t="s">
-        <v>13</v>
-      </c>
+      <c r="C17" s="6"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B18" s="3" t="s">
@@ -696,9 +694,7 @@
       <c r="B20" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C20" s="5" t="s">
-        <v>13</v>
-      </c>
+      <c r="C20" s="6"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B21" s="3" t="s">
@@ -720,7 +716,7 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" s="4">
-        <v>46053</v>
+        <v>46055</v>
       </c>
       <c r="B24" s="7" t="s">
         <v>3</v>
@@ -781,17 +777,12 @@
       <c r="B31" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C31" s="5" t="s">
-        <v>13</v>
-      </c>
+      <c r="C31" s="6"/>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B32" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C32" s="5" t="s">
-        <v>13</v>
-      </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B33" s="3" t="s">
@@ -802,13 +793,10 @@
       <c r="B34" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C34" s="5" t="s">
-        <v>13</v>
-      </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" s="4">
-        <v>46052</v>
+        <v>46054</v>
       </c>
       <c r="B35" s="7" t="s">
         <v>3</v>
@@ -893,7 +881,7 @@
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A46" s="4">
-        <v>46051</v>
+        <v>46053</v>
       </c>
       <c r="B46" s="7" t="s">
         <v>3</v>
@@ -962,6 +950,9 @@
       <c r="B54" s="3" t="s">
         <v>11</v>
       </c>
+      <c r="C54" s="5" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B55" s="3" t="s">
@@ -972,10 +963,13 @@
       <c r="B56" s="3" t="s">
         <v>14</v>
       </c>
+      <c r="C56" s="5" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A57" s="4">
-        <v>46050</v>
+        <v>46052</v>
       </c>
       <c r="B57" s="7" t="s">
         <v>3</v>
@@ -1060,7 +1054,7 @@
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A68" s="4">
-        <v>46049</v>
+        <v>46051</v>
       </c>
       <c r="B68" s="7" t="s">
         <v>3</v>
@@ -1129,9 +1123,6 @@
       <c r="B76" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C76" s="5" t="s">
-        <v>13</v>
-      </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B77" s="3" t="s">
@@ -1142,13 +1133,10 @@
       <c r="B78" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C78" s="5" t="s">
-        <v>13</v>
-      </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A79" s="4">
-        <v>46048</v>
+        <v>46050</v>
       </c>
       <c r="B79" s="7" t="s">
         <v>3</v>
@@ -1169,19 +1157,25 @@
       <c r="B81" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C81" s="6"/>
+      <c r="C81" s="5" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B82" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C82" s="6"/>
+      <c r="C82" s="5" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B83" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C83" s="6"/>
+      <c r="C83" s="5" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B84" s="3" t="s">
@@ -1203,7 +1197,9 @@
       <c r="B86" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C86" s="6"/>
+      <c r="C86" s="5" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B87" s="3" t="s">
@@ -1219,10 +1215,13 @@
       <c r="B89" s="3" t="s">
         <v>14</v>
       </c>
+      <c r="C89" s="5" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A90" s="4">
-        <v>46047</v>
+        <v>46049</v>
       </c>
       <c r="B90" s="7" t="s">
         <v>3</v>
@@ -1310,7 +1309,7 @@
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A101" s="4">
-        <v>46046</v>
+        <v>46048</v>
       </c>
       <c r="B101" s="7" t="s">
         <v>3</v>
@@ -1331,25 +1330,19 @@
       <c r="B103" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C103" s="5" t="s">
-        <v>13</v>
-      </c>
+      <c r="C103" s="6"/>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B104" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C104" s="5" t="s">
-        <v>13</v>
-      </c>
+      <c r="C104" s="6"/>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B105" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C105" s="5" t="s">
-        <v>13</v>
-      </c>
+      <c r="C105" s="6"/>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B106" s="3" t="s">
@@ -1371,17 +1364,12 @@
       <c r="B108" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C108" s="5" t="s">
-        <v>13</v>
-      </c>
+      <c r="C108" s="6"/>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B109" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C109" s="5" t="s">
-        <v>13</v>
-      </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B110" s="3" t="s">
@@ -1392,13 +1380,10 @@
       <c r="B111" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C111" s="5" t="s">
-        <v>13</v>
-      </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A112" s="4">
-        <v>46045</v>
+        <v>46047</v>
       </c>
       <c r="B112" s="7" t="s">
         <v>3</v>
@@ -1467,6 +1452,9 @@
       <c r="B120" s="3" t="s">
         <v>11</v>
       </c>
+      <c r="C120" s="5" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B121" s="3" t="s">
@@ -1483,7 +1471,7 @@
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A123" s="4">
-        <v>46044</v>
+        <v>46046</v>
       </c>
       <c r="B123" s="7" t="s">
         <v>3</v>
@@ -1562,19 +1550,19 @@
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A133" s="4">
-        <v>46043</v>
-      </c>
-      <c r="B133" s="7" t="s">
+      <c r="B133" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C133" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A134" s="4">
+        <v>46045</v>
+      </c>
+      <c r="B134" s="7" t="s">
         <v>3</v>
-      </c>
-      <c r="C133" s="5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B134" s="3" t="s">
-        <v>4</v>
       </c>
       <c r="C134" s="5" t="s">
         <v>13</v>
@@ -1582,7 +1570,7 @@
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B135" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C135" s="5" t="s">
         <v>13</v>
@@ -1590,7 +1578,7 @@
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B136" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C136" s="5" t="s">
         <v>13</v>
@@ -1598,7 +1586,7 @@
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B137" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C137" s="5" t="s">
         <v>13</v>
@@ -1606,7 +1594,7 @@
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B138" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C138" s="5" t="s">
         <v>13</v>
@@ -1614,7 +1602,7 @@
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B139" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C139" s="5" t="s">
         <v>13</v>
@@ -1622,7 +1610,7 @@
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B140" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C140" s="5" t="s">
         <v>13</v>
@@ -1630,7 +1618,7 @@
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B141" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C141" s="5" t="s">
         <v>13</v>
@@ -1638,88 +1626,261 @@
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B142" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B143" s="3" t="s">
         <v>12</v>
-      </c>
-    </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A143" s="4">
-        <v>46042</v>
-      </c>
-      <c r="B143" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="C143" s="5" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B144" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C144" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A145" s="4">
+        <v>46044</v>
+      </c>
+      <c r="B145" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C145" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B146" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C144" s="5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="145" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B145" s="3" t="s">
+      <c r="C146" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B147" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C145" s="5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="146" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B146" s="3" t="s">
+      <c r="C147" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B148" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C146" s="5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="147" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B147" s="3" t="s">
+      <c r="C148" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B149" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C147" s="5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="148" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B148" s="3" t="s">
+      <c r="C149" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B150" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C148" s="5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="149" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B149" s="3" t="s">
+      <c r="C150" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B151" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C149" s="5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="150" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B150" s="3" t="s">
+      <c r="C151" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B152" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C150" s="5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="151" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B151" s="3" t="s">
+      <c r="C152" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B153" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="152" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B152" s="3" t="s">
+      <c r="C153" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B154" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="153" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B153" s="3">
+    <row r="155" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A155" s="4">
+        <v>46043</v>
+      </c>
+      <c r="B155" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C155" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B156" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C156" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B157" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C157" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B158" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C158" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B159" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C159" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B160" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C160" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B161" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C161" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B162" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C162" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B163" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C163" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B164" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A165" s="4">
+        <v>46042</v>
+      </c>
+      <c r="B165" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C165" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B166" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C166" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B167" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C167" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B168" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C168" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B169" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C169" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B170" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C170" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B171" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C171" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B172" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C172" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B173" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B174" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B175" s="3">
         <v>11</v>
       </c>
     </row>

--- a/成王败寇.xlsx
+++ b/成王败寇.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Coding\Github\WinnerTakeAll\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA874055-307F-448A-8F70-645650422EA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0165473A-EFD1-4BD4-B8CB-6D0932C69970}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="15">
   <si>
     <t>时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -200,74 +200,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -287,7 +219,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="CCE8CF"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -542,10 +474,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C175"/>
+  <dimension ref="A1:C208"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -635,7 +567,7 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" s="4">
-        <v>46057</v>
+        <v>46060</v>
       </c>
       <c r="B13" s="7" t="s">
         <v>3</v>
@@ -672,7 +604,9 @@
       <c r="B17" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C17" s="6"/>
+      <c r="C17" s="5" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B18" s="3" t="s">
@@ -694,12 +628,17 @@
       <c r="B20" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C20" s="6"/>
+      <c r="C20" s="5" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B21" s="3" t="s">
         <v>11</v>
       </c>
+      <c r="C21" s="5" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B22" s="3" t="s">
@@ -716,7 +655,7 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" s="4">
-        <v>46055</v>
+        <v>46059</v>
       </c>
       <c r="B24" s="7" t="s">
         <v>3</v>
@@ -777,7 +716,9 @@
       <c r="B31" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C31" s="6"/>
+      <c r="C31" s="5" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B32" s="3" t="s">
@@ -793,10 +734,13 @@
       <c r="B34" s="3" t="s">
         <v>14</v>
       </c>
+      <c r="C34" s="5" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" s="4">
-        <v>46054</v>
+        <v>46058</v>
       </c>
       <c r="B35" s="7" t="s">
         <v>3</v>
@@ -881,7 +825,7 @@
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A46" s="4">
-        <v>46053</v>
+        <v>46057</v>
       </c>
       <c r="B46" s="7" t="s">
         <v>3</v>
@@ -950,14 +894,14 @@
       <c r="B54" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C54" s="5" t="s">
-        <v>13</v>
-      </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B55" s="3" t="s">
         <v>12</v>
       </c>
+      <c r="C55" s="5" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B56" s="3" t="s">
@@ -969,7 +913,7 @@
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A57" s="4">
-        <v>46052</v>
+        <v>46055</v>
       </c>
       <c r="B57" s="7" t="s">
         <v>3</v>
@@ -1030,9 +974,7 @@
       <c r="B64" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C64" s="5" t="s">
-        <v>13</v>
-      </c>
+      <c r="C64" s="6"/>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B65" s="3" t="s">
@@ -1048,13 +990,10 @@
       <c r="B67" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C67" s="5" t="s">
-        <v>13</v>
-      </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A68" s="4">
-        <v>46051</v>
+        <v>46054</v>
       </c>
       <c r="B68" s="7" t="s">
         <v>3</v>
@@ -1133,10 +1072,13 @@
       <c r="B78" s="3" t="s">
         <v>14</v>
       </c>
+      <c r="C78" s="5" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A79" s="4">
-        <v>46050</v>
+        <v>46053</v>
       </c>
       <c r="B79" s="7" t="s">
         <v>3</v>
@@ -1205,6 +1147,9 @@
       <c r="B87" s="3" t="s">
         <v>11</v>
       </c>
+      <c r="C87" s="5" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B88" s="3" t="s">
@@ -1221,7 +1166,7 @@
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A90" s="4">
-        <v>46049</v>
+        <v>46052</v>
       </c>
       <c r="B90" s="7" t="s">
         <v>3</v>
@@ -1290,9 +1235,6 @@
       <c r="B98" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C98" s="5" t="s">
-        <v>13</v>
-      </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B99" s="3" t="s">
@@ -1309,7 +1251,7 @@
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A101" s="4">
-        <v>46048</v>
+        <v>46051</v>
       </c>
       <c r="B101" s="7" t="s">
         <v>3</v>
@@ -1330,19 +1272,25 @@
       <c r="B103" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C103" s="6"/>
+      <c r="C103" s="5" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B104" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C104" s="6"/>
+      <c r="C104" s="5" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B105" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C105" s="6"/>
+      <c r="C105" s="5" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B106" s="3" t="s">
@@ -1364,7 +1312,9 @@
       <c r="B108" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C108" s="6"/>
+      <c r="C108" s="5" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B109" s="3" t="s">
@@ -1383,7 +1333,7 @@
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A112" s="4">
-        <v>46047</v>
+        <v>46050</v>
       </c>
       <c r="B112" s="7" t="s">
         <v>3</v>
@@ -1452,9 +1402,6 @@
       <c r="B120" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C120" s="5" t="s">
-        <v>13</v>
-      </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B121" s="3" t="s">
@@ -1471,7 +1418,7 @@
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A123" s="4">
-        <v>46046</v>
+        <v>46049</v>
       </c>
       <c r="B123" s="7" t="s">
         <v>3</v>
@@ -1559,7 +1506,7 @@
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A134" s="4">
-        <v>46045</v>
+        <v>46048</v>
       </c>
       <c r="B134" s="7" t="s">
         <v>3</v>
@@ -1580,25 +1527,19 @@
       <c r="B136" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C136" s="5" t="s">
-        <v>13</v>
-      </c>
+      <c r="C136" s="6"/>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B137" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C137" s="5" t="s">
-        <v>13</v>
-      </c>
+      <c r="C137" s="6"/>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B138" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C138" s="5" t="s">
-        <v>13</v>
-      </c>
+      <c r="C138" s="6"/>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B139" s="3" t="s">
@@ -1620,9 +1561,7 @@
       <c r="B141" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C141" s="5" t="s">
-        <v>13</v>
-      </c>
+      <c r="C141" s="6"/>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B142" s="3" t="s">
@@ -1638,13 +1577,10 @@
       <c r="B144" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C144" s="5" t="s">
-        <v>13</v>
-      </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A145" s="4">
-        <v>46044</v>
+        <v>46047</v>
       </c>
       <c r="B145" s="7" t="s">
         <v>3</v>
@@ -1723,19 +1659,19 @@
       </c>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A155" s="4">
-        <v>46043</v>
-      </c>
-      <c r="B155" s="7" t="s">
+      <c r="B155" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C155" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A156" s="4">
+        <v>46046</v>
+      </c>
+      <c r="B156" s="7" t="s">
         <v>3</v>
-      </c>
-      <c r="C155" s="5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B156" s="3" t="s">
-        <v>4</v>
       </c>
       <c r="C156" s="5" t="s">
         <v>13</v>
@@ -1743,7 +1679,7 @@
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B157" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C157" s="5" t="s">
         <v>13</v>
@@ -1751,7 +1687,7 @@
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B158" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C158" s="5" t="s">
         <v>13</v>
@@ -1759,7 +1695,7 @@
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B159" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C159" s="5" t="s">
         <v>13</v>
@@ -1767,7 +1703,7 @@
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B160" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C160" s="5" t="s">
         <v>13</v>
@@ -1775,7 +1711,7 @@
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B161" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C161" s="5" t="s">
         <v>13</v>
@@ -1783,7 +1719,7 @@
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B162" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C162" s="5" t="s">
         <v>13</v>
@@ -1791,7 +1727,7 @@
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B163" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C163" s="5" t="s">
         <v>13</v>
@@ -1799,31 +1735,31 @@
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B164" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C164" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B165" s="3" t="s">
         <v>12</v>
-      </c>
-    </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A165" s="4">
-        <v>46042</v>
-      </c>
-      <c r="B165" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="C165" s="5" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B166" s="3" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="C166" s="5" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B167" s="3" t="s">
-        <v>5</v>
+      <c r="A167" s="4">
+        <v>46045</v>
+      </c>
+      <c r="B167" s="7" t="s">
+        <v>3</v>
       </c>
       <c r="C167" s="5" t="s">
         <v>13</v>
@@ -1831,7 +1767,7 @@
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B168" s="3" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C168" s="5" t="s">
         <v>13</v>
@@ -1839,7 +1775,7 @@
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B169" s="3" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C169" s="5" t="s">
         <v>13</v>
@@ -1847,7 +1783,7 @@
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B170" s="3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C170" s="5" t="s">
         <v>13</v>
@@ -1855,7 +1791,7 @@
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B171" s="3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C171" s="5" t="s">
         <v>13</v>
@@ -1863,7 +1799,7 @@
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B172" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C172" s="5" t="s">
         <v>13</v>
@@ -1871,16 +1807,277 @@
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B173" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
+      </c>
+      <c r="C173" s="5" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B174" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C174" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B175" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B176" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B175" s="3">
+    <row r="177" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B177" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C177" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A178" s="4">
+        <v>46044</v>
+      </c>
+      <c r="B178" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C178" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B179" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C179" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B180" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C180" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B181" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C181" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B182" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C182" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B183" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C183" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B184" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C184" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B185" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C185" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B186" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C186" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B187" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A188" s="4">
+        <v>46043</v>
+      </c>
+      <c r="B188" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C188" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B189" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C189" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B190" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C190" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B191" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C191" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B192" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C192" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B193" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C193" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B194" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C194" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B195" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C195" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B196" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C196" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B197" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A198" s="4">
+        <v>46042</v>
+      </c>
+      <c r="B198" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C198" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B199" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C199" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B200" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C200" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B201" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C201" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B202" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C202" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B203" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C203" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B204" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C204" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B205" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C205" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B206" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B207" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B208" s="3">
         <v>11</v>
       </c>
     </row>

--- a/成王败寇.xlsx
+++ b/成王败寇.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Coding\Github\WinnerTakeAll\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0165473A-EFD1-4BD4-B8CB-6D0932C69970}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAE2A7BC-AED3-433A-A6C3-E3F4ACF6B02E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="15">
   <si>
     <t>时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -200,6 +200,74 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -219,7 +287,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="CCE8CF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -474,10 +542,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C208"/>
+  <dimension ref="A1:C219"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -567,7 +635,7 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" s="4">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="B13" s="7" t="s">
         <v>3</v>
@@ -655,7 +723,7 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" s="4">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="B24" s="7" t="s">
         <v>3</v>
@@ -724,6 +792,9 @@
       <c r="B32" s="3" t="s">
         <v>11</v>
       </c>
+      <c r="C32" s="5" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B33" s="3" t="s">
@@ -740,7 +811,7 @@
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" s="4">
-        <v>46058</v>
+        <v>46059</v>
       </c>
       <c r="B35" s="7" t="s">
         <v>3</v>
@@ -825,7 +896,7 @@
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A46" s="4">
-        <v>46057</v>
+        <v>46058</v>
       </c>
       <c r="B46" s="7" t="s">
         <v>3</v>
@@ -899,9 +970,6 @@
       <c r="B55" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C55" s="5" t="s">
-        <v>13</v>
-      </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B56" s="3" t="s">
@@ -913,7 +981,7 @@
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A57" s="4">
-        <v>46055</v>
+        <v>46057</v>
       </c>
       <c r="B57" s="7" t="s">
         <v>3</v>
@@ -974,7 +1042,9 @@
       <c r="B64" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C64" s="6"/>
+      <c r="C64" s="5" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B65" s="3" t="s">
@@ -985,15 +1055,21 @@
       <c r="B66" s="3" t="s">
         <v>12</v>
       </c>
+      <c r="C66" s="5" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B67" s="3" t="s">
         <v>14</v>
       </c>
+      <c r="C67" s="5" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A68" s="4">
-        <v>46054</v>
+        <v>46055</v>
       </c>
       <c r="B68" s="7" t="s">
         <v>3</v>
@@ -1054,9 +1130,7 @@
       <c r="B75" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C75" s="5" t="s">
-        <v>13</v>
-      </c>
+      <c r="C75" s="6"/>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B76" s="3" t="s">
@@ -1072,13 +1146,10 @@
       <c r="B78" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C78" s="5" t="s">
-        <v>13</v>
-      </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A79" s="4">
-        <v>46053</v>
+        <v>46054</v>
       </c>
       <c r="B79" s="7" t="s">
         <v>3</v>
@@ -1147,9 +1218,6 @@
       <c r="B87" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C87" s="5" t="s">
-        <v>13</v>
-      </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B88" s="3" t="s">
@@ -1166,7 +1234,7 @@
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A90" s="4">
-        <v>46052</v>
+        <v>46053</v>
       </c>
       <c r="B90" s="7" t="s">
         <v>3</v>
@@ -1235,6 +1303,9 @@
       <c r="B98" s="3" t="s">
         <v>11</v>
       </c>
+      <c r="C98" s="5" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B99" s="3" t="s">
@@ -1251,7 +1322,7 @@
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A101" s="4">
-        <v>46051</v>
+        <v>46052</v>
       </c>
       <c r="B101" s="7" t="s">
         <v>3</v>
@@ -1330,10 +1401,13 @@
       <c r="B111" s="3" t="s">
         <v>14</v>
       </c>
+      <c r="C111" s="5" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A112" s="4">
-        <v>46050</v>
+        <v>46051</v>
       </c>
       <c r="B112" s="7" t="s">
         <v>3</v>
@@ -1412,13 +1486,10 @@
       <c r="B122" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C122" s="5" t="s">
-        <v>13</v>
-      </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A123" s="4">
-        <v>46049</v>
+        <v>46050</v>
       </c>
       <c r="B123" s="7" t="s">
         <v>3</v>
@@ -1487,9 +1558,6 @@
       <c r="B131" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C131" s="5" t="s">
-        <v>13</v>
-      </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B132" s="3" t="s">
@@ -1506,7 +1574,7 @@
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A134" s="4">
-        <v>46048</v>
+        <v>46049</v>
       </c>
       <c r="B134" s="7" t="s">
         <v>3</v>
@@ -1527,19 +1595,25 @@
       <c r="B136" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C136" s="6"/>
+      <c r="C136" s="5" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B137" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C137" s="6"/>
+      <c r="C137" s="5" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B138" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C138" s="6"/>
+      <c r="C138" s="5" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B139" s="3" t="s">
@@ -1561,12 +1635,17 @@
       <c r="B141" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C141" s="6"/>
+      <c r="C141" s="5" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B142" s="3" t="s">
         <v>11</v>
       </c>
+      <c r="C142" s="5" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B143" s="3" t="s">
@@ -1577,10 +1656,13 @@
       <c r="B144" s="3" t="s">
         <v>14</v>
       </c>
+      <c r="C144" s="5" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A145" s="4">
-        <v>46047</v>
+        <v>46048</v>
       </c>
       <c r="B145" s="7" t="s">
         <v>3</v>
@@ -1601,25 +1683,19 @@
       <c r="B147" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C147" s="5" t="s">
-        <v>13</v>
-      </c>
+      <c r="C147" s="6"/>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B148" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C148" s="5" t="s">
-        <v>13</v>
-      </c>
+      <c r="C148" s="6"/>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B149" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C149" s="5" t="s">
-        <v>13</v>
-      </c>
+      <c r="C149" s="6"/>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B150" s="3" t="s">
@@ -1641,17 +1717,12 @@
       <c r="B152" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C152" s="5" t="s">
-        <v>13</v>
-      </c>
+      <c r="C152" s="6"/>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B153" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C153" s="5" t="s">
-        <v>13</v>
-      </c>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B154" s="3" t="s">
@@ -1662,13 +1733,10 @@
       <c r="B155" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C155" s="5" t="s">
-        <v>13</v>
-      </c>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A156" s="4">
-        <v>46046</v>
+        <v>46047</v>
       </c>
       <c r="B156" s="7" t="s">
         <v>3</v>
@@ -1756,7 +1824,7 @@
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A167" s="4">
-        <v>46045</v>
+        <v>46046</v>
       </c>
       <c r="B167" s="7" t="s">
         <v>3</v>
@@ -1825,6 +1893,9 @@
       <c r="B175" s="3" t="s">
         <v>11</v>
       </c>
+      <c r="C175" s="5" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B176" s="3" t="s">
@@ -1841,7 +1912,7 @@
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A178" s="4">
-        <v>46044</v>
+        <v>46045</v>
       </c>
       <c r="B178" s="7" t="s">
         <v>3</v>
@@ -1910,9 +1981,6 @@
       <c r="B186" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C186" s="5" t="s">
-        <v>13</v>
-      </c>
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B187" s="3" t="s">
@@ -1920,19 +1988,19 @@
       </c>
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A188" s="4">
-        <v>46043</v>
-      </c>
-      <c r="B188" s="7" t="s">
+      <c r="B188" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C188" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A189" s="4">
+        <v>46044</v>
+      </c>
+      <c r="B189" s="7" t="s">
         <v>3</v>
-      </c>
-      <c r="C188" s="5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B189" s="3" t="s">
-        <v>4</v>
       </c>
       <c r="C189" s="5" t="s">
         <v>13</v>
@@ -1940,7 +2008,7 @@
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B190" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C190" s="5" t="s">
         <v>13</v>
@@ -1948,7 +2016,7 @@
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B191" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C191" s="5" t="s">
         <v>13</v>
@@ -1956,7 +2024,7 @@
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B192" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C192" s="5" t="s">
         <v>13</v>
@@ -1964,7 +2032,7 @@
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B193" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C193" s="5" t="s">
         <v>13</v>
@@ -1972,7 +2040,7 @@
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B194" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C194" s="5" t="s">
         <v>13</v>
@@ -1980,7 +2048,7 @@
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B195" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C195" s="5" t="s">
         <v>13</v>
@@ -1988,7 +2056,7 @@
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B196" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C196" s="5" t="s">
         <v>13</v>
@@ -1996,23 +2064,23 @@
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B197" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C197" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B198" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="198" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A198" s="4">
-        <v>46042</v>
-      </c>
-      <c r="B198" s="7" t="s">
+    <row r="199" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A199" s="4">
+        <v>46043</v>
+      </c>
+      <c r="B199" s="7" t="s">
         <v>3</v>
-      </c>
-      <c r="C198" s="5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="199" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B199" s="3" t="s">
-        <v>4</v>
       </c>
       <c r="C199" s="5" t="s">
         <v>13</v>
@@ -2020,7 +2088,7 @@
     </row>
     <row r="200" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B200" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C200" s="5" t="s">
         <v>13</v>
@@ -2028,7 +2096,7 @@
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B201" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C201" s="5" t="s">
         <v>13</v>
@@ -2036,7 +2104,7 @@
     </row>
     <row r="202" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B202" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C202" s="5" t="s">
         <v>13</v>
@@ -2044,7 +2112,7 @@
     </row>
     <row r="203" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B203" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C203" s="5" t="s">
         <v>13</v>
@@ -2052,7 +2120,7 @@
     </row>
     <row r="204" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B204" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C204" s="5" t="s">
         <v>13</v>
@@ -2060,7 +2128,7 @@
     </row>
     <row r="205" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B205" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C205" s="5" t="s">
         <v>13</v>
@@ -2068,16 +2136,104 @@
     </row>
     <row r="206" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B206" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
+      </c>
+      <c r="C206" s="5" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="207" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B207" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C207" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B208" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="208" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B208" s="3">
+    <row r="209" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A209" s="4">
+        <v>46042</v>
+      </c>
+      <c r="B209" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C209" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="210" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B210" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C210" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="211" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B211" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C211" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="212" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B212" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C212" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="213" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B213" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C213" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="214" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B214" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C214" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="215" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B215" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C215" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="216" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B216" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C216" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="217" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B217" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="218" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B218" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="219" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B219" s="3">
         <v>11</v>
       </c>
     </row>

--- a/成王败寇.xlsx
+++ b/成王败寇.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Coding\Github\WinnerTakeAll\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAE2A7BC-AED3-433A-A6C3-E3F4ACF6B02E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09D603FB-CA43-4B87-B1E5-BF77A6C4DF62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="410" uniqueCount="15">
   <si>
     <t>时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -200,74 +200,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -287,7 +219,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="CCE8CF"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -542,7 +474,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C219"/>
+  <dimension ref="A1:C230"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C21" sqref="C21"/>
@@ -635,7 +567,7 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" s="4">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="B13" s="7" t="s">
         <v>3</v>
@@ -723,7 +655,7 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" s="4">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="B24" s="7" t="s">
         <v>3</v>
@@ -811,7 +743,7 @@
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" s="4">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="B35" s="7" t="s">
         <v>3</v>
@@ -880,6 +812,9 @@
       <c r="B43" s="3" t="s">
         <v>11</v>
       </c>
+      <c r="C43" s="5" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B44" s="3" t="s">
@@ -896,7 +831,7 @@
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A46" s="4">
-        <v>46058</v>
+        <v>46059</v>
       </c>
       <c r="B46" s="7" t="s">
         <v>3</v>
@@ -981,7 +916,7 @@
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A57" s="4">
-        <v>46057</v>
+        <v>46058</v>
       </c>
       <c r="B57" s="7" t="s">
         <v>3</v>
@@ -1055,9 +990,6 @@
       <c r="B66" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C66" s="5" t="s">
-        <v>13</v>
-      </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B67" s="3" t="s">
@@ -1069,7 +1001,7 @@
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A68" s="4">
-        <v>46055</v>
+        <v>46057</v>
       </c>
       <c r="B68" s="7" t="s">
         <v>3</v>
@@ -1130,7 +1062,9 @@
       <c r="B75" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C75" s="6"/>
+      <c r="C75" s="5" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B76" s="3" t="s">
@@ -1141,15 +1075,21 @@
       <c r="B77" s="3" t="s">
         <v>12</v>
       </c>
+      <c r="C77" s="5" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B78" s="3" t="s">
         <v>14</v>
       </c>
+      <c r="C78" s="5" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A79" s="4">
-        <v>46054</v>
+        <v>46055</v>
       </c>
       <c r="B79" s="7" t="s">
         <v>3</v>
@@ -1210,9 +1150,7 @@
       <c r="B86" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C86" s="5" t="s">
-        <v>13</v>
-      </c>
+      <c r="C86" s="6"/>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B87" s="3" t="s">
@@ -1228,13 +1166,10 @@
       <c r="B89" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C89" s="5" t="s">
-        <v>13</v>
-      </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A90" s="4">
-        <v>46053</v>
+        <v>46054</v>
       </c>
       <c r="B90" s="7" t="s">
         <v>3</v>
@@ -1303,9 +1238,6 @@
       <c r="B98" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C98" s="5" t="s">
-        <v>13</v>
-      </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B99" s="3" t="s">
@@ -1322,7 +1254,7 @@
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A101" s="4">
-        <v>46052</v>
+        <v>46053</v>
       </c>
       <c r="B101" s="7" t="s">
         <v>3</v>
@@ -1391,6 +1323,9 @@
       <c r="B109" s="3" t="s">
         <v>11</v>
       </c>
+      <c r="C109" s="5" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B110" s="3" t="s">
@@ -1407,7 +1342,7 @@
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A112" s="4">
-        <v>46051</v>
+        <v>46052</v>
       </c>
       <c r="B112" s="7" t="s">
         <v>3</v>
@@ -1486,10 +1421,13 @@
       <c r="B122" s="3" t="s">
         <v>14</v>
       </c>
+      <c r="C122" s="5" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A123" s="4">
-        <v>46050</v>
+        <v>46051</v>
       </c>
       <c r="B123" s="7" t="s">
         <v>3</v>
@@ -1568,13 +1506,10 @@
       <c r="B133" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C133" s="5" t="s">
-        <v>13</v>
-      </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A134" s="4">
-        <v>46049</v>
+        <v>46050</v>
       </c>
       <c r="B134" s="7" t="s">
         <v>3</v>
@@ -1643,9 +1578,6 @@
       <c r="B142" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C142" s="5" t="s">
-        <v>13</v>
-      </c>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B143" s="3" t="s">
@@ -1662,7 +1594,7 @@
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A145" s="4">
-        <v>46048</v>
+        <v>46049</v>
       </c>
       <c r="B145" s="7" t="s">
         <v>3</v>
@@ -1683,19 +1615,25 @@
       <c r="B147" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C147" s="6"/>
+      <c r="C147" s="5" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B148" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C148" s="6"/>
+      <c r="C148" s="5" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B149" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C149" s="6"/>
+      <c r="C149" s="5" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B150" s="3" t="s">
@@ -1717,12 +1655,17 @@
       <c r="B152" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C152" s="6"/>
+      <c r="C152" s="5" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B153" s="3" t="s">
         <v>11</v>
       </c>
+      <c r="C153" s="5" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B154" s="3" t="s">
@@ -1733,10 +1676,13 @@
       <c r="B155" s="3" t="s">
         <v>14</v>
       </c>
+      <c r="C155" s="5" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A156" s="4">
-        <v>46047</v>
+        <v>46048</v>
       </c>
       <c r="B156" s="7" t="s">
         <v>3</v>
@@ -1757,25 +1703,19 @@
       <c r="B158" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C158" s="5" t="s">
-        <v>13</v>
-      </c>
+      <c r="C158" s="6"/>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B159" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C159" s="5" t="s">
-        <v>13</v>
-      </c>
+      <c r="C159" s="6"/>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B160" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C160" s="5" t="s">
-        <v>13</v>
-      </c>
+      <c r="C160" s="6"/>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B161" s="3" t="s">
@@ -1797,17 +1737,12 @@
       <c r="B163" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C163" s="5" t="s">
-        <v>13</v>
-      </c>
+      <c r="C163" s="6"/>
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B164" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C164" s="5" t="s">
-        <v>13</v>
-      </c>
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B165" s="3" t="s">
@@ -1818,13 +1753,10 @@
       <c r="B166" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C166" s="5" t="s">
-        <v>13</v>
-      </c>
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A167" s="4">
-        <v>46046</v>
+        <v>46047</v>
       </c>
       <c r="B167" s="7" t="s">
         <v>3</v>
@@ -1912,7 +1844,7 @@
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A178" s="4">
-        <v>46045</v>
+        <v>46046</v>
       </c>
       <c r="B178" s="7" t="s">
         <v>3</v>
@@ -1981,6 +1913,9 @@
       <c r="B186" s="3" t="s">
         <v>11</v>
       </c>
+      <c r="C186" s="5" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B187" s="3" t="s">
@@ -1997,7 +1932,7 @@
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A189" s="4">
-        <v>46044</v>
+        <v>46045</v>
       </c>
       <c r="B189" s="7" t="s">
         <v>3</v>
@@ -2066,9 +2001,6 @@
       <c r="B197" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C197" s="5" t="s">
-        <v>13</v>
-      </c>
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B198" s="3" t="s">
@@ -2076,19 +2008,19 @@
       </c>
     </row>
     <row r="199" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A199" s="4">
-        <v>46043</v>
-      </c>
-      <c r="B199" s="7" t="s">
+      <c r="B199" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C199" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A200" s="4">
+        <v>46044</v>
+      </c>
+      <c r="B200" s="7" t="s">
         <v>3</v>
-      </c>
-      <c r="C199" s="5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="200" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B200" s="3" t="s">
-        <v>4</v>
       </c>
       <c r="C200" s="5" t="s">
         <v>13</v>
@@ -2096,7 +2028,7 @@
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B201" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C201" s="5" t="s">
         <v>13</v>
@@ -2104,7 +2036,7 @@
     </row>
     <row r="202" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B202" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C202" s="5" t="s">
         <v>13</v>
@@ -2112,7 +2044,7 @@
     </row>
     <row r="203" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B203" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C203" s="5" t="s">
         <v>13</v>
@@ -2120,7 +2052,7 @@
     </row>
     <row r="204" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B204" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C204" s="5" t="s">
         <v>13</v>
@@ -2128,7 +2060,7 @@
     </row>
     <row r="205" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B205" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C205" s="5" t="s">
         <v>13</v>
@@ -2136,7 +2068,7 @@
     </row>
     <row r="206" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B206" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C206" s="5" t="s">
         <v>13</v>
@@ -2144,7 +2076,7 @@
     </row>
     <row r="207" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B207" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C207" s="5" t="s">
         <v>13</v>
@@ -2152,23 +2084,23 @@
     </row>
     <row r="208" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B208" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C208" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="209" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B209" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="209" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A209" s="4">
-        <v>46042</v>
-      </c>
-      <c r="B209" s="7" t="s">
+    <row r="210" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A210" s="4">
+        <v>46043</v>
+      </c>
+      <c r="B210" s="7" t="s">
         <v>3</v>
-      </c>
-      <c r="C209" s="5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="210" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B210" s="3" t="s">
-        <v>4</v>
       </c>
       <c r="C210" s="5" t="s">
         <v>13</v>
@@ -2176,7 +2108,7 @@
     </row>
     <row r="211" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B211" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C211" s="5" t="s">
         <v>13</v>
@@ -2184,7 +2116,7 @@
     </row>
     <row r="212" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B212" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C212" s="5" t="s">
         <v>13</v>
@@ -2192,7 +2124,7 @@
     </row>
     <row r="213" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B213" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C213" s="5" t="s">
         <v>13</v>
@@ -2200,7 +2132,7 @@
     </row>
     <row r="214" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B214" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C214" s="5" t="s">
         <v>13</v>
@@ -2208,7 +2140,7 @@
     </row>
     <row r="215" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B215" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C215" s="5" t="s">
         <v>13</v>
@@ -2216,7 +2148,7 @@
     </row>
     <row r="216" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B216" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C216" s="5" t="s">
         <v>13</v>
@@ -2224,16 +2156,104 @@
     </row>
     <row r="217" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B217" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
+      </c>
+      <c r="C217" s="5" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="218" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B218" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C218" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="219" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B219" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="219" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B219" s="3">
+    <row r="220" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A220" s="4">
+        <v>46042</v>
+      </c>
+      <c r="B220" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C220" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="221" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B221" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C221" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="222" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B222" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C222" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="223" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B223" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C223" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="224" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B224" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C224" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="225" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B225" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C225" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="226" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B226" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C226" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="227" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B227" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C227" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="228" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B228" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="229" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B229" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="230" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B230" s="3">
         <v>11</v>
       </c>
     </row>

--- a/成王败寇.xlsx
+++ b/成王败寇.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Coding\Github\WinnerTakeAll\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09D603FB-CA43-4B87-B1E5-BF77A6C4DF62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{079EA106-AFF5-48C8-A3B1-A7CB4B9925E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="410" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="448" uniqueCount="15">
   <si>
     <t>时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -474,10 +474,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C230"/>
+  <dimension ref="A1:C252"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -567,7 +567,7 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" s="4">
-        <v>46062</v>
+        <v>46065</v>
       </c>
       <c r="B13" s="7" t="s">
         <v>3</v>
@@ -636,9 +636,6 @@
       <c r="B21" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C21" s="5" t="s">
-        <v>13</v>
-      </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B22" s="3" t="s">
@@ -655,7 +652,7 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" s="4">
-        <v>46061</v>
+        <v>46063</v>
       </c>
       <c r="B24" s="7" t="s">
         <v>3</v>
@@ -716,17 +713,12 @@
       <c r="B31" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C31" s="5" t="s">
-        <v>13</v>
-      </c>
+      <c r="C31" s="6"/>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B32" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C32" s="5" t="s">
-        <v>13</v>
-      </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B33" s="3" t="s">
@@ -737,13 +729,10 @@
       <c r="B34" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C34" s="5" t="s">
-        <v>13</v>
-      </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" s="4">
-        <v>46060</v>
+        <v>46062</v>
       </c>
       <c r="B35" s="7" t="s">
         <v>3</v>
@@ -831,7 +820,7 @@
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A46" s="4">
-        <v>46059</v>
+        <v>46061</v>
       </c>
       <c r="B46" s="7" t="s">
         <v>3</v>
@@ -900,6 +889,9 @@
       <c r="B54" s="3" t="s">
         <v>11</v>
       </c>
+      <c r="C54" s="5" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B55" s="3" t="s">
@@ -916,7 +908,7 @@
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A57" s="4">
-        <v>46058</v>
+        <v>46060</v>
       </c>
       <c r="B57" s="7" t="s">
         <v>3</v>
@@ -985,6 +977,9 @@
       <c r="B65" s="3" t="s">
         <v>11</v>
       </c>
+      <c r="C65" s="5" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B66" s="3" t="s">
@@ -1001,7 +996,7 @@
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A68" s="4">
-        <v>46057</v>
+        <v>46059</v>
       </c>
       <c r="B68" s="7" t="s">
         <v>3</v>
@@ -1075,9 +1070,6 @@
       <c r="B77" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C77" s="5" t="s">
-        <v>13</v>
-      </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B78" s="3" t="s">
@@ -1089,7 +1081,7 @@
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A79" s="4">
-        <v>46055</v>
+        <v>46058</v>
       </c>
       <c r="B79" s="7" t="s">
         <v>3</v>
@@ -1150,7 +1142,9 @@
       <c r="B86" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C86" s="6"/>
+      <c r="C86" s="5" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B87" s="3" t="s">
@@ -1166,10 +1160,13 @@
       <c r="B89" s="3" t="s">
         <v>14</v>
       </c>
+      <c r="C89" s="5" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A90" s="4">
-        <v>46054</v>
+        <v>46057</v>
       </c>
       <c r="B90" s="7" t="s">
         <v>3</v>
@@ -1243,6 +1240,9 @@
       <c r="B99" s="3" t="s">
         <v>12</v>
       </c>
+      <c r="C99" s="5" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B100" s="3" t="s">
@@ -1254,7 +1254,7 @@
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A101" s="4">
-        <v>46053</v>
+        <v>46055</v>
       </c>
       <c r="B101" s="7" t="s">
         <v>3</v>
@@ -1315,17 +1315,12 @@
       <c r="B108" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C108" s="5" t="s">
-        <v>13</v>
-      </c>
+      <c r="C108" s="6"/>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B109" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C109" s="5" t="s">
-        <v>13</v>
-      </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B110" s="3" t="s">
@@ -1336,13 +1331,10 @@
       <c r="B111" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C111" s="5" t="s">
-        <v>13</v>
-      </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A112" s="4">
-        <v>46052</v>
+        <v>46054</v>
       </c>
       <c r="B112" s="7" t="s">
         <v>3</v>
@@ -1427,7 +1419,7 @@
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A123" s="4">
-        <v>46051</v>
+        <v>46053</v>
       </c>
       <c r="B123" s="7" t="s">
         <v>3</v>
@@ -1496,6 +1488,9 @@
       <c r="B131" s="3" t="s">
         <v>11</v>
       </c>
+      <c r="C131" s="5" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B132" s="3" t="s">
@@ -1506,10 +1501,13 @@
       <c r="B133" s="3" t="s">
         <v>14</v>
       </c>
+      <c r="C133" s="5" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A134" s="4">
-        <v>46050</v>
+        <v>46052</v>
       </c>
       <c r="B134" s="7" t="s">
         <v>3</v>
@@ -1594,7 +1592,7 @@
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A145" s="4">
-        <v>46049</v>
+        <v>46051</v>
       </c>
       <c r="B145" s="7" t="s">
         <v>3</v>
@@ -1663,9 +1661,6 @@
       <c r="B153" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C153" s="5" t="s">
-        <v>13</v>
-      </c>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B154" s="3" t="s">
@@ -1676,13 +1671,10 @@
       <c r="B155" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C155" s="5" t="s">
-        <v>13</v>
-      </c>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A156" s="4">
-        <v>46048</v>
+        <v>46050</v>
       </c>
       <c r="B156" s="7" t="s">
         <v>3</v>
@@ -1703,19 +1695,25 @@
       <c r="B158" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C158" s="6"/>
+      <c r="C158" s="5" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B159" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C159" s="6"/>
+      <c r="C159" s="5" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B160" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C160" s="6"/>
+      <c r="C160" s="5" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B161" s="3" t="s">
@@ -1737,7 +1735,9 @@
       <c r="B163" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C163" s="6"/>
+      <c r="C163" s="5" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B164" s="3" t="s">
@@ -1753,10 +1753,13 @@
       <c r="B166" s="3" t="s">
         <v>14</v>
       </c>
+      <c r="C166" s="5" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A167" s="4">
-        <v>46047</v>
+        <v>46049</v>
       </c>
       <c r="B167" s="7" t="s">
         <v>3</v>
@@ -1844,7 +1847,7 @@
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A178" s="4">
-        <v>46046</v>
+        <v>46048</v>
       </c>
       <c r="B178" s="7" t="s">
         <v>3</v>
@@ -1865,25 +1868,19 @@
       <c r="B180" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C180" s="5" t="s">
-        <v>13</v>
-      </c>
+      <c r="C180" s="6"/>
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B181" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C181" s="5" t="s">
-        <v>13</v>
-      </c>
+      <c r="C181" s="6"/>
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B182" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C182" s="5" t="s">
-        <v>13</v>
-      </c>
+      <c r="C182" s="6"/>
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B183" s="3" t="s">
@@ -1905,17 +1902,12 @@
       <c r="B185" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C185" s="5" t="s">
-        <v>13</v>
-      </c>
+      <c r="C185" s="6"/>
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B186" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C186" s="5" t="s">
-        <v>13</v>
-      </c>
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B187" s="3" t="s">
@@ -1926,13 +1918,10 @@
       <c r="B188" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C188" s="5" t="s">
-        <v>13</v>
-      </c>
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A189" s="4">
-        <v>46045</v>
+        <v>46047</v>
       </c>
       <c r="B189" s="7" t="s">
         <v>3</v>
@@ -2001,6 +1990,9 @@
       <c r="B197" s="3" t="s">
         <v>11</v>
       </c>
+      <c r="C197" s="5" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B198" s="3" t="s">
@@ -2017,7 +2009,7 @@
     </row>
     <row r="200" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A200" s="4">
-        <v>46044</v>
+        <v>46046</v>
       </c>
       <c r="B200" s="7" t="s">
         <v>3</v>
@@ -2096,19 +2088,19 @@
       </c>
     </row>
     <row r="210" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A210" s="4">
-        <v>46043</v>
-      </c>
-      <c r="B210" s="7" t="s">
+      <c r="B210" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C210" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="211" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A211" s="4">
+        <v>46045</v>
+      </c>
+      <c r="B211" s="7" t="s">
         <v>3</v>
-      </c>
-      <c r="C210" s="5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="211" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B211" s="3" t="s">
-        <v>4</v>
       </c>
       <c r="C211" s="5" t="s">
         <v>13</v>
@@ -2116,7 +2108,7 @@
     </row>
     <row r="212" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B212" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C212" s="5" t="s">
         <v>13</v>
@@ -2124,7 +2116,7 @@
     </row>
     <row r="213" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B213" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C213" s="5" t="s">
         <v>13</v>
@@ -2132,7 +2124,7 @@
     </row>
     <row r="214" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B214" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C214" s="5" t="s">
         <v>13</v>
@@ -2140,7 +2132,7 @@
     </row>
     <row r="215" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B215" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C215" s="5" t="s">
         <v>13</v>
@@ -2148,7 +2140,7 @@
     </row>
     <row r="216" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B216" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C216" s="5" t="s">
         <v>13</v>
@@ -2156,7 +2148,7 @@
     </row>
     <row r="217" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B217" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C217" s="5" t="s">
         <v>13</v>
@@ -2164,7 +2156,7 @@
     </row>
     <row r="218" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B218" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C218" s="5" t="s">
         <v>13</v>
@@ -2172,31 +2164,28 @@
     </row>
     <row r="219" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B219" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="220" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B220" s="3" t="s">
         <v>12</v>
-      </c>
-    </row>
-    <row r="220" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A220" s="4">
-        <v>46042</v>
-      </c>
-      <c r="B220" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="C220" s="5" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="221" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B221" s="3" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="C221" s="5" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="222" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B222" s="3" t="s">
-        <v>5</v>
+      <c r="A222" s="4">
+        <v>46044</v>
+      </c>
+      <c r="B222" s="7" t="s">
+        <v>3</v>
       </c>
       <c r="C222" s="5" t="s">
         <v>13</v>
@@ -2204,7 +2193,7 @@
     </row>
     <row r="223" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B223" s="3" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C223" s="5" t="s">
         <v>13</v>
@@ -2212,48 +2201,224 @@
     </row>
     <row r="224" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B224" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C224" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="225" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B225" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C225" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="226" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B226" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C224" s="5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="225" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B225" s="3" t="s">
+      <c r="C226" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="227" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B227" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C225" s="5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="226" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B226" s="3" t="s">
+      <c r="C227" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="228" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B228" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C226" s="5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="227" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B227" s="3" t="s">
+      <c r="C228" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="229" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B229" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C227" s="5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="228" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B228" s="3" t="s">
+      <c r="C229" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="230" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B230" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="229" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B229" s="3" t="s">
+      <c r="C230" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="231" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B231" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="230" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B230" s="3">
+    <row r="232" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A232" s="4">
+        <v>46043</v>
+      </c>
+      <c r="B232" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C232" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="233" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B233" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C233" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="234" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B234" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C234" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="235" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B235" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C235" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="236" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B236" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C236" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="237" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B237" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C237" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="238" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B238" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C238" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="239" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B239" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C239" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="240" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B240" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C240" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="241" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B241" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="242" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A242" s="4">
+        <v>46042</v>
+      </c>
+      <c r="B242" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C242" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="243" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B243" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C243" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="244" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B244" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C244" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="245" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B245" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C245" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="246" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B246" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C246" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="247" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B247" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C247" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="248" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B248" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C248" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="249" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B249" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C249" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="250" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B250" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="251" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B251" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="252" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B252" s="3">
         <v>11</v>
       </c>
     </row>

--- a/成王败寇.xlsx
+++ b/成王败寇.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Coding\Github\WinnerTakeAll\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{079EA106-AFF5-48C8-A3B1-A7CB4B9925E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9CFADA4-242F-4F36-9FE7-8721462AEFC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="448" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="469" uniqueCount="15">
   <si>
     <t>时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -474,10 +474,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C252"/>
+  <dimension ref="A1:C263"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -567,7 +567,7 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" s="4">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="B13" s="7" t="s">
         <v>3</v>
@@ -636,6 +636,9 @@
       <c r="B21" s="3" t="s">
         <v>11</v>
       </c>
+      <c r="C21" s="5" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B22" s="3" t="s">
@@ -652,7 +655,7 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" s="4">
-        <v>46063</v>
+        <v>46065</v>
       </c>
       <c r="B24" s="7" t="s">
         <v>3</v>
@@ -713,7 +716,9 @@
       <c r="B31" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C31" s="6"/>
+      <c r="C31" s="5" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B32" s="3" t="s">
@@ -729,10 +734,13 @@
       <c r="B34" s="3" t="s">
         <v>14</v>
       </c>
+      <c r="C34" s="5" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" s="4">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="B35" s="7" t="s">
         <v>3</v>
@@ -793,17 +801,12 @@
       <c r="B42" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C42" s="5" t="s">
-        <v>13</v>
-      </c>
+      <c r="C42" s="6"/>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B43" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C43" s="5" t="s">
-        <v>13</v>
-      </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B44" s="3" t="s">
@@ -814,13 +817,10 @@
       <c r="B45" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C45" s="5" t="s">
-        <v>13</v>
-      </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A46" s="4">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="B46" s="7" t="s">
         <v>3</v>
@@ -908,7 +908,7 @@
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A57" s="4">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="B57" s="7" t="s">
         <v>3</v>
@@ -996,7 +996,7 @@
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A68" s="4">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="B68" s="7" t="s">
         <v>3</v>
@@ -1065,6 +1065,9 @@
       <c r="B76" s="3" t="s">
         <v>11</v>
       </c>
+      <c r="C76" s="5" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B77" s="3" t="s">
@@ -1081,7 +1084,7 @@
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A79" s="4">
-        <v>46058</v>
+        <v>46059</v>
       </c>
       <c r="B79" s="7" t="s">
         <v>3</v>
@@ -1166,7 +1169,7 @@
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A90" s="4">
-        <v>46057</v>
+        <v>46058</v>
       </c>
       <c r="B90" s="7" t="s">
         <v>3</v>
@@ -1240,9 +1243,6 @@
       <c r="B99" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C99" s="5" t="s">
-        <v>13</v>
-      </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B100" s="3" t="s">
@@ -1254,7 +1254,7 @@
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A101" s="4">
-        <v>46055</v>
+        <v>46057</v>
       </c>
       <c r="B101" s="7" t="s">
         <v>3</v>
@@ -1315,7 +1315,9 @@
       <c r="B108" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C108" s="6"/>
+      <c r="C108" s="5" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B109" s="3" t="s">
@@ -1326,15 +1328,21 @@
       <c r="B110" s="3" t="s">
         <v>12</v>
       </c>
+      <c r="C110" s="5" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B111" s="3" t="s">
         <v>14</v>
       </c>
+      <c r="C111" s="5" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A112" s="4">
-        <v>46054</v>
+        <v>46055</v>
       </c>
       <c r="B112" s="7" t="s">
         <v>3</v>
@@ -1395,9 +1403,7 @@
       <c r="B119" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C119" s="5" t="s">
-        <v>13</v>
-      </c>
+      <c r="C119" s="6"/>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B120" s="3" t="s">
@@ -1413,13 +1419,10 @@
       <c r="B122" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C122" s="5" t="s">
-        <v>13</v>
-      </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A123" s="4">
-        <v>46053</v>
+        <v>46054</v>
       </c>
       <c r="B123" s="7" t="s">
         <v>3</v>
@@ -1488,9 +1491,6 @@
       <c r="B131" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C131" s="5" t="s">
-        <v>13</v>
-      </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B132" s="3" t="s">
@@ -1507,7 +1507,7 @@
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A134" s="4">
-        <v>46052</v>
+        <v>46053</v>
       </c>
       <c r="B134" s="7" t="s">
         <v>3</v>
@@ -1576,6 +1576,9 @@
       <c r="B142" s="3" t="s">
         <v>11</v>
       </c>
+      <c r="C142" s="5" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B143" s="3" t="s">
@@ -1592,7 +1595,7 @@
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A145" s="4">
-        <v>46051</v>
+        <v>46052</v>
       </c>
       <c r="B145" s="7" t="s">
         <v>3</v>
@@ -1671,10 +1674,13 @@
       <c r="B155" s="3" t="s">
         <v>14</v>
       </c>
+      <c r="C155" s="5" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A156" s="4">
-        <v>46050</v>
+        <v>46051</v>
       </c>
       <c r="B156" s="7" t="s">
         <v>3</v>
@@ -1753,13 +1759,10 @@
       <c r="B166" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C166" s="5" t="s">
-        <v>13</v>
-      </c>
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A167" s="4">
-        <v>46049</v>
+        <v>46050</v>
       </c>
       <c r="B167" s="7" t="s">
         <v>3</v>
@@ -1828,9 +1831,6 @@
       <c r="B175" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C175" s="5" t="s">
-        <v>13</v>
-      </c>
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B176" s="3" t="s">
@@ -1847,7 +1847,7 @@
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A178" s="4">
-        <v>46048</v>
+        <v>46049</v>
       </c>
       <c r="B178" s="7" t="s">
         <v>3</v>
@@ -1868,19 +1868,25 @@
       <c r="B180" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C180" s="6"/>
+      <c r="C180" s="5" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B181" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C181" s="6"/>
+      <c r="C181" s="5" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B182" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C182" s="6"/>
+      <c r="C182" s="5" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B183" s="3" t="s">
@@ -1902,12 +1908,17 @@
       <c r="B185" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C185" s="6"/>
+      <c r="C185" s="5" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B186" s="3" t="s">
         <v>11</v>
       </c>
+      <c r="C186" s="5" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B187" s="3" t="s">
@@ -1918,10 +1929,13 @@
       <c r="B188" s="3" t="s">
         <v>14</v>
       </c>
+      <c r="C188" s="5" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A189" s="4">
-        <v>46047</v>
+        <v>46048</v>
       </c>
       <c r="B189" s="7" t="s">
         <v>3</v>
@@ -1942,25 +1956,19 @@
       <c r="B191" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C191" s="5" t="s">
-        <v>13</v>
-      </c>
+      <c r="C191" s="6"/>
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B192" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C192" s="5" t="s">
-        <v>13</v>
-      </c>
+      <c r="C192" s="6"/>
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B193" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C193" s="5" t="s">
-        <v>13</v>
-      </c>
+      <c r="C193" s="6"/>
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B194" s="3" t="s">
@@ -1982,17 +1990,12 @@
       <c r="B196" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C196" s="5" t="s">
-        <v>13</v>
-      </c>
+      <c r="C196" s="6"/>
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B197" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C197" s="5" t="s">
-        <v>13</v>
-      </c>
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B198" s="3" t="s">
@@ -2003,13 +2006,10 @@
       <c r="B199" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C199" s="5" t="s">
-        <v>13</v>
-      </c>
     </row>
     <row r="200" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A200" s="4">
-        <v>46046</v>
+        <v>46047</v>
       </c>
       <c r="B200" s="7" t="s">
         <v>3</v>
@@ -2097,7 +2097,7 @@
     </row>
     <row r="211" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A211" s="4">
-        <v>46045</v>
+        <v>46046</v>
       </c>
       <c r="B211" s="7" t="s">
         <v>3</v>
@@ -2166,6 +2166,9 @@
       <c r="B219" s="3" t="s">
         <v>11</v>
       </c>
+      <c r="C219" s="5" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="220" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B220" s="3" t="s">
@@ -2182,7 +2185,7 @@
     </row>
     <row r="222" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A222" s="4">
-        <v>46044</v>
+        <v>46045</v>
       </c>
       <c r="B222" s="7" t="s">
         <v>3</v>
@@ -2251,9 +2254,6 @@
       <c r="B230" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C230" s="5" t="s">
-        <v>13</v>
-      </c>
     </row>
     <row r="231" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B231" s="3" t="s">
@@ -2261,19 +2261,19 @@
       </c>
     </row>
     <row r="232" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A232" s="4">
-        <v>46043</v>
-      </c>
-      <c r="B232" s="7" t="s">
+      <c r="B232" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C232" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="233" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A233" s="4">
+        <v>46044</v>
+      </c>
+      <c r="B233" s="7" t="s">
         <v>3</v>
-      </c>
-      <c r="C232" s="5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="233" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B233" s="3" t="s">
-        <v>4</v>
       </c>
       <c r="C233" s="5" t="s">
         <v>13</v>
@@ -2281,7 +2281,7 @@
     </row>
     <row r="234" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B234" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C234" s="5" t="s">
         <v>13</v>
@@ -2289,7 +2289,7 @@
     </row>
     <row r="235" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B235" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C235" s="5" t="s">
         <v>13</v>
@@ -2297,7 +2297,7 @@
     </row>
     <row r="236" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B236" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C236" s="5" t="s">
         <v>13</v>
@@ -2305,7 +2305,7 @@
     </row>
     <row r="237" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B237" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C237" s="5" t="s">
         <v>13</v>
@@ -2313,7 +2313,7 @@
     </row>
     <row r="238" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B238" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C238" s="5" t="s">
         <v>13</v>
@@ -2321,7 +2321,7 @@
     </row>
     <row r="239" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B239" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C239" s="5" t="s">
         <v>13</v>
@@ -2329,7 +2329,7 @@
     </row>
     <row r="240" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B240" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C240" s="5" t="s">
         <v>13</v>
@@ -2337,23 +2337,23 @@
     </row>
     <row r="241" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B241" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C241" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="242" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B242" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="242" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A242" s="4">
-        <v>46042</v>
-      </c>
-      <c r="B242" s="7" t="s">
+    <row r="243" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A243" s="4">
+        <v>46043</v>
+      </c>
+      <c r="B243" s="7" t="s">
         <v>3</v>
-      </c>
-      <c r="C242" s="5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="243" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B243" s="3" t="s">
-        <v>4</v>
       </c>
       <c r="C243" s="5" t="s">
         <v>13</v>
@@ -2361,7 +2361,7 @@
     </row>
     <row r="244" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B244" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C244" s="5" t="s">
         <v>13</v>
@@ -2369,7 +2369,7 @@
     </row>
     <row r="245" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B245" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C245" s="5" t="s">
         <v>13</v>
@@ -2377,7 +2377,7 @@
     </row>
     <row r="246" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B246" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C246" s="5" t="s">
         <v>13</v>
@@ -2385,7 +2385,7 @@
     </row>
     <row r="247" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B247" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C247" s="5" t="s">
         <v>13</v>
@@ -2393,7 +2393,7 @@
     </row>
     <row r="248" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B248" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C248" s="5" t="s">
         <v>13</v>
@@ -2401,7 +2401,7 @@
     </row>
     <row r="249" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B249" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C249" s="5" t="s">
         <v>13</v>
@@ -2409,16 +2409,104 @@
     </row>
     <row r="250" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B250" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
+      </c>
+      <c r="C250" s="5" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="251" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B251" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C251" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="252" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B252" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="252" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B252" s="3">
+    <row r="253" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A253" s="4">
+        <v>46042</v>
+      </c>
+      <c r="B253" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C253" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="254" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B254" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C254" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="255" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B255" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C255" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="256" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B256" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C256" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="257" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B257" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C257" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="258" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B258" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C258" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="259" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B259" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C259" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="260" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B260" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C260" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="261" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B261" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="262" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B262" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="263" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B263" s="3">
         <v>11</v>
       </c>
     </row>

--- a/成王败寇.xlsx
+++ b/成王败寇.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Coding\Github\WinnerTakeAll\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9CFADA4-242F-4F36-9FE7-8721462AEFC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EB7B68F-32FB-4198-A451-6A1D4FC280AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="469" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="490" uniqueCount="15">
   <si>
     <t>时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -200,6 +200,74 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -219,7 +287,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="CCE8CF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -474,10 +542,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C263"/>
+  <dimension ref="A1:C274"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -567,7 +635,7 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" s="4">
-        <v>46066</v>
+        <v>46067</v>
       </c>
       <c r="B13" s="7" t="s">
         <v>3</v>
@@ -655,7 +723,7 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" s="4">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="B24" s="7" t="s">
         <v>3</v>
@@ -724,6 +792,9 @@
       <c r="B32" s="3" t="s">
         <v>11</v>
       </c>
+      <c r="C32" s="5" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B33" s="3" t="s">
@@ -740,7 +811,7 @@
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" s="4">
-        <v>46063</v>
+        <v>46065</v>
       </c>
       <c r="B35" s="7" t="s">
         <v>3</v>
@@ -801,7 +872,9 @@
       <c r="B42" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C42" s="6"/>
+      <c r="C42" s="5" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B43" s="3" t="s">
@@ -817,10 +890,13 @@
       <c r="B45" s="3" t="s">
         <v>14</v>
       </c>
+      <c r="C45" s="5" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A46" s="4">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="B46" s="7" t="s">
         <v>3</v>
@@ -881,17 +957,12 @@
       <c r="B53" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C53" s="5" t="s">
-        <v>13</v>
-      </c>
+      <c r="C53" s="6"/>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B54" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C54" s="5" t="s">
-        <v>13</v>
-      </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B55" s="3" t="s">
@@ -902,13 +973,10 @@
       <c r="B56" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C56" s="5" t="s">
-        <v>13</v>
-      </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A57" s="4">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="B57" s="7" t="s">
         <v>3</v>
@@ -996,7 +1064,7 @@
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A68" s="4">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="B68" s="7" t="s">
         <v>3</v>
@@ -1084,7 +1152,7 @@
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A79" s="4">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="B79" s="7" t="s">
         <v>3</v>
@@ -1153,6 +1221,9 @@
       <c r="B87" s="3" t="s">
         <v>11</v>
       </c>
+      <c r="C87" s="5" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B88" s="3" t="s">
@@ -1169,7 +1240,7 @@
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A90" s="4">
-        <v>46058</v>
+        <v>46059</v>
       </c>
       <c r="B90" s="7" t="s">
         <v>3</v>
@@ -1254,7 +1325,7 @@
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A101" s="4">
-        <v>46057</v>
+        <v>46058</v>
       </c>
       <c r="B101" s="7" t="s">
         <v>3</v>
@@ -1328,9 +1399,6 @@
       <c r="B110" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C110" s="5" t="s">
-        <v>13</v>
-      </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B111" s="3" t="s">
@@ -1342,7 +1410,7 @@
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A112" s="4">
-        <v>46055</v>
+        <v>46057</v>
       </c>
       <c r="B112" s="7" t="s">
         <v>3</v>
@@ -1403,7 +1471,9 @@
       <c r="B119" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C119" s="6"/>
+      <c r="C119" s="5" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B120" s="3" t="s">
@@ -1414,15 +1484,21 @@
       <c r="B121" s="3" t="s">
         <v>12</v>
       </c>
+      <c r="C121" s="5" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B122" s="3" t="s">
         <v>14</v>
       </c>
+      <c r="C122" s="5" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A123" s="4">
-        <v>46054</v>
+        <v>46055</v>
       </c>
       <c r="B123" s="7" t="s">
         <v>3</v>
@@ -1483,9 +1559,7 @@
       <c r="B130" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C130" s="5" t="s">
-        <v>13</v>
-      </c>
+      <c r="C130" s="6"/>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B131" s="3" t="s">
@@ -1501,13 +1575,10 @@
       <c r="B133" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C133" s="5" t="s">
-        <v>13</v>
-      </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A134" s="4">
-        <v>46053</v>
+        <v>46054</v>
       </c>
       <c r="B134" s="7" t="s">
         <v>3</v>
@@ -1576,9 +1647,6 @@
       <c r="B142" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C142" s="5" t="s">
-        <v>13</v>
-      </c>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B143" s="3" t="s">
@@ -1595,7 +1663,7 @@
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A145" s="4">
-        <v>46052</v>
+        <v>46053</v>
       </c>
       <c r="B145" s="7" t="s">
         <v>3</v>
@@ -1664,6 +1732,9 @@
       <c r="B153" s="3" t="s">
         <v>11</v>
       </c>
+      <c r="C153" s="5" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B154" s="3" t="s">
@@ -1680,7 +1751,7 @@
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A156" s="4">
-        <v>46051</v>
+        <v>46052</v>
       </c>
       <c r="B156" s="7" t="s">
         <v>3</v>
@@ -1759,10 +1830,13 @@
       <c r="B166" s="3" t="s">
         <v>14</v>
       </c>
+      <c r="C166" s="5" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A167" s="4">
-        <v>46050</v>
+        <v>46051</v>
       </c>
       <c r="B167" s="7" t="s">
         <v>3</v>
@@ -1841,13 +1915,10 @@
       <c r="B177" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C177" s="5" t="s">
-        <v>13</v>
-      </c>
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A178" s="4">
-        <v>46049</v>
+        <v>46050</v>
       </c>
       <c r="B178" s="7" t="s">
         <v>3</v>
@@ -1916,9 +1987,6 @@
       <c r="B186" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C186" s="5" t="s">
-        <v>13</v>
-      </c>
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B187" s="3" t="s">
@@ -1935,7 +2003,7 @@
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A189" s="4">
-        <v>46048</v>
+        <v>46049</v>
       </c>
       <c r="B189" s="7" t="s">
         <v>3</v>
@@ -1956,19 +2024,25 @@
       <c r="B191" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C191" s="6"/>
+      <c r="C191" s="5" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B192" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C192" s="6"/>
+      <c r="C192" s="5" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B193" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C193" s="6"/>
+      <c r="C193" s="5" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B194" s="3" t="s">
@@ -1990,12 +2064,17 @@
       <c r="B196" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C196" s="6"/>
+      <c r="C196" s="5" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B197" s="3" t="s">
         <v>11</v>
       </c>
+      <c r="C197" s="5" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B198" s="3" t="s">
@@ -2006,10 +2085,13 @@
       <c r="B199" s="3" t="s">
         <v>14</v>
       </c>
+      <c r="C199" s="5" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="200" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A200" s="4">
-        <v>46047</v>
+        <v>46048</v>
       </c>
       <c r="B200" s="7" t="s">
         <v>3</v>
@@ -2030,25 +2112,19 @@
       <c r="B202" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C202" s="5" t="s">
-        <v>13</v>
-      </c>
+      <c r="C202" s="6"/>
     </row>
     <row r="203" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B203" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C203" s="5" t="s">
-        <v>13</v>
-      </c>
+      <c r="C203" s="6"/>
     </row>
     <row r="204" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B204" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C204" s="5" t="s">
-        <v>13</v>
-      </c>
+      <c r="C204" s="6"/>
     </row>
     <row r="205" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B205" s="3" t="s">
@@ -2070,17 +2146,12 @@
       <c r="B207" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C207" s="5" t="s">
-        <v>13</v>
-      </c>
+      <c r="C207" s="6"/>
     </row>
     <row r="208" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B208" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C208" s="5" t="s">
-        <v>13</v>
-      </c>
     </row>
     <row r="209" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B209" s="3" t="s">
@@ -2091,13 +2162,10 @@
       <c r="B210" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C210" s="5" t="s">
-        <v>13</v>
-      </c>
     </row>
     <row r="211" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A211" s="4">
-        <v>46046</v>
+        <v>46047</v>
       </c>
       <c r="B211" s="7" t="s">
         <v>3</v>
@@ -2185,7 +2253,7 @@
     </row>
     <row r="222" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A222" s="4">
-        <v>46045</v>
+        <v>46046</v>
       </c>
       <c r="B222" s="7" t="s">
         <v>3</v>
@@ -2254,6 +2322,9 @@
       <c r="B230" s="3" t="s">
         <v>11</v>
       </c>
+      <c r="C230" s="5" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="231" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B231" s="3" t="s">
@@ -2270,7 +2341,7 @@
     </row>
     <row r="233" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A233" s="4">
-        <v>46044</v>
+        <v>46045</v>
       </c>
       <c r="B233" s="7" t="s">
         <v>3</v>
@@ -2339,9 +2410,6 @@
       <c r="B241" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C241" s="5" t="s">
-        <v>13</v>
-      </c>
     </row>
     <row r="242" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B242" s="3" t="s">
@@ -2349,19 +2417,19 @@
       </c>
     </row>
     <row r="243" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A243" s="4">
-        <v>46043</v>
-      </c>
-      <c r="B243" s="7" t="s">
+      <c r="B243" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C243" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="244" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A244" s="4">
+        <v>46044</v>
+      </c>
+      <c r="B244" s="7" t="s">
         <v>3</v>
-      </c>
-      <c r="C243" s="5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="244" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B244" s="3" t="s">
-        <v>4</v>
       </c>
       <c r="C244" s="5" t="s">
         <v>13</v>
@@ -2369,7 +2437,7 @@
     </row>
     <row r="245" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B245" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C245" s="5" t="s">
         <v>13</v>
@@ -2377,7 +2445,7 @@
     </row>
     <row r="246" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B246" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C246" s="5" t="s">
         <v>13</v>
@@ -2385,7 +2453,7 @@
     </row>
     <row r="247" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B247" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C247" s="5" t="s">
         <v>13</v>
@@ -2393,7 +2461,7 @@
     </row>
     <row r="248" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B248" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C248" s="5" t="s">
         <v>13</v>
@@ -2401,7 +2469,7 @@
     </row>
     <row r="249" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B249" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C249" s="5" t="s">
         <v>13</v>
@@ -2409,7 +2477,7 @@
     </row>
     <row r="250" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B250" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C250" s="5" t="s">
         <v>13</v>
@@ -2417,7 +2485,7 @@
     </row>
     <row r="251" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B251" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C251" s="5" t="s">
         <v>13</v>
@@ -2425,23 +2493,23 @@
     </row>
     <row r="252" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B252" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C252" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="253" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B253" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="253" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A253" s="4">
-        <v>46042</v>
-      </c>
-      <c r="B253" s="7" t="s">
+    <row r="254" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A254" s="4">
+        <v>46043</v>
+      </c>
+      <c r="B254" s="7" t="s">
         <v>3</v>
-      </c>
-      <c r="C253" s="5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="254" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B254" s="3" t="s">
-        <v>4</v>
       </c>
       <c r="C254" s="5" t="s">
         <v>13</v>
@@ -2449,7 +2517,7 @@
     </row>
     <row r="255" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B255" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C255" s="5" t="s">
         <v>13</v>
@@ -2457,56 +2525,144 @@
     </row>
     <row r="256" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B256" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C256" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="257" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B257" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C256" s="5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="257" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B257" s="3" t="s">
+      <c r="C257" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="258" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B258" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C257" s="5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="258" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B258" s="3" t="s">
+      <c r="C258" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="259" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B259" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C258" s="5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="259" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B259" s="3" t="s">
+      <c r="C259" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="260" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B260" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C259" s="5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="260" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B260" s="3" t="s">
+      <c r="C260" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="261" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B261" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C260" s="5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="261" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B261" s="3" t="s">
+      <c r="C261" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="262" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B262" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="262" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B262" s="3" t="s">
+      <c r="C262" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="263" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B263" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="263" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B263" s="3">
+    <row r="264" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A264" s="4">
+        <v>46042</v>
+      </c>
+      <c r="B264" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C264" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="265" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B265" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C265" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="266" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B266" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C266" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="267" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B267" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C267" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="268" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B268" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C268" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="269" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B269" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C269" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="270" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B270" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C270" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="271" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B271" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C271" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="272" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B272" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="273" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B273" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="274" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B274" s="3">
         <v>11</v>
       </c>
     </row>

--- a/成王败寇.xlsx
+++ b/成王败寇.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Coding\Github\WinnerTakeAll\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EB7B68F-32FB-4198-A451-6A1D4FC280AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49C2AF23-DCD6-4741-A475-52EC723F0867}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="490" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="511" uniqueCount="15">
   <si>
     <t>时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -542,10 +542,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C274"/>
+  <dimension ref="A1:C285"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -635,7 +635,7 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" s="4">
-        <v>46067</v>
+        <v>46068</v>
       </c>
       <c r="B13" s="7" t="s">
         <v>3</v>
@@ -723,7 +723,7 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" s="4">
-        <v>46066</v>
+        <v>46067</v>
       </c>
       <c r="B24" s="7" t="s">
         <v>3</v>
@@ -811,7 +811,7 @@
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" s="4">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="B35" s="7" t="s">
         <v>3</v>
@@ -880,6 +880,9 @@
       <c r="B43" s="3" t="s">
         <v>11</v>
       </c>
+      <c r="C43" s="5" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B44" s="3" t="s">
@@ -896,7 +899,7 @@
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A46" s="4">
-        <v>46063</v>
+        <v>46065</v>
       </c>
       <c r="B46" s="7" t="s">
         <v>3</v>
@@ -957,7 +960,9 @@
       <c r="B53" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C53" s="6"/>
+      <c r="C53" s="5" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B54" s="3" t="s">
@@ -973,10 +978,13 @@
       <c r="B56" s="3" t="s">
         <v>14</v>
       </c>
+      <c r="C56" s="5" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A57" s="4">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="B57" s="7" t="s">
         <v>3</v>
@@ -1037,17 +1045,12 @@
       <c r="B64" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C64" s="5" t="s">
-        <v>13</v>
-      </c>
+      <c r="C64" s="6"/>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B65" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C65" s="5" t="s">
-        <v>13</v>
-      </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B66" s="3" t="s">
@@ -1058,13 +1061,10 @@
       <c r="B67" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C67" s="5" t="s">
-        <v>13</v>
-      </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A68" s="4">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="B68" s="7" t="s">
         <v>3</v>
@@ -1152,7 +1152,7 @@
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A79" s="4">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="B79" s="7" t="s">
         <v>3</v>
@@ -1240,7 +1240,7 @@
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A90" s="4">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="B90" s="7" t="s">
         <v>3</v>
@@ -1309,6 +1309,9 @@
       <c r="B98" s="3" t="s">
         <v>11</v>
       </c>
+      <c r="C98" s="5" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B99" s="3" t="s">
@@ -1325,7 +1328,7 @@
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A101" s="4">
-        <v>46058</v>
+        <v>46059</v>
       </c>
       <c r="B101" s="7" t="s">
         <v>3</v>
@@ -1410,7 +1413,7 @@
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A112" s="4">
-        <v>46057</v>
+        <v>46058</v>
       </c>
       <c r="B112" s="7" t="s">
         <v>3</v>
@@ -1484,9 +1487,6 @@
       <c r="B121" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C121" s="5" t="s">
-        <v>13</v>
-      </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B122" s="3" t="s">
@@ -1498,7 +1498,7 @@
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A123" s="4">
-        <v>46055</v>
+        <v>46057</v>
       </c>
       <c r="B123" s="7" t="s">
         <v>3</v>
@@ -1559,7 +1559,9 @@
       <c r="B130" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C130" s="6"/>
+      <c r="C130" s="5" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B131" s="3" t="s">
@@ -1570,15 +1572,21 @@
       <c r="B132" s="3" t="s">
         <v>12</v>
       </c>
+      <c r="C132" s="5" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B133" s="3" t="s">
         <v>14</v>
       </c>
+      <c r="C133" s="5" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A134" s="4">
-        <v>46054</v>
+        <v>46055</v>
       </c>
       <c r="B134" s="7" t="s">
         <v>3</v>
@@ -1639,9 +1647,7 @@
       <c r="B141" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C141" s="5" t="s">
-        <v>13</v>
-      </c>
+      <c r="C141" s="6"/>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B142" s="3" t="s">
@@ -1657,13 +1663,10 @@
       <c r="B144" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C144" s="5" t="s">
-        <v>13</v>
-      </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A145" s="4">
-        <v>46053</v>
+        <v>46054</v>
       </c>
       <c r="B145" s="7" t="s">
         <v>3</v>
@@ -1732,9 +1735,6 @@
       <c r="B153" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C153" s="5" t="s">
-        <v>13</v>
-      </c>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B154" s="3" t="s">
@@ -1751,7 +1751,7 @@
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A156" s="4">
-        <v>46052</v>
+        <v>46053</v>
       </c>
       <c r="B156" s="7" t="s">
         <v>3</v>
@@ -1820,6 +1820,9 @@
       <c r="B164" s="3" t="s">
         <v>11</v>
       </c>
+      <c r="C164" s="5" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B165" s="3" t="s">
@@ -1836,7 +1839,7 @@
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A167" s="4">
-        <v>46051</v>
+        <v>46052</v>
       </c>
       <c r="B167" s="7" t="s">
         <v>3</v>
@@ -1915,10 +1918,13 @@
       <c r="B177" s="3" t="s">
         <v>14</v>
       </c>
+      <c r="C177" s="5" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A178" s="4">
-        <v>46050</v>
+        <v>46051</v>
       </c>
       <c r="B178" s="7" t="s">
         <v>3</v>
@@ -1997,13 +2003,10 @@
       <c r="B188" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C188" s="5" t="s">
-        <v>13</v>
-      </c>
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A189" s="4">
-        <v>46049</v>
+        <v>46050</v>
       </c>
       <c r="B189" s="7" t="s">
         <v>3</v>
@@ -2072,9 +2075,6 @@
       <c r="B197" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C197" s="5" t="s">
-        <v>13</v>
-      </c>
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B198" s="3" t="s">
@@ -2091,7 +2091,7 @@
     </row>
     <row r="200" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A200" s="4">
-        <v>46048</v>
+        <v>46049</v>
       </c>
       <c r="B200" s="7" t="s">
         <v>3</v>
@@ -2112,19 +2112,25 @@
       <c r="B202" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C202" s="6"/>
+      <c r="C202" s="5" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="203" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B203" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C203" s="6"/>
+      <c r="C203" s="5" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="204" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B204" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C204" s="6"/>
+      <c r="C204" s="5" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="205" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B205" s="3" t="s">
@@ -2146,12 +2152,17 @@
       <c r="B207" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C207" s="6"/>
+      <c r="C207" s="5" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="208" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B208" s="3" t="s">
         <v>11</v>
       </c>
+      <c r="C208" s="5" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="209" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B209" s="3" t="s">
@@ -2162,10 +2173,13 @@
       <c r="B210" s="3" t="s">
         <v>14</v>
       </c>
+      <c r="C210" s="5" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="211" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A211" s="4">
-        <v>46047</v>
+        <v>46048</v>
       </c>
       <c r="B211" s="7" t="s">
         <v>3</v>
@@ -2186,25 +2200,19 @@
       <c r="B213" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C213" s="5" t="s">
-        <v>13</v>
-      </c>
+      <c r="C213" s="6"/>
     </row>
     <row r="214" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B214" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C214" s="5" t="s">
-        <v>13</v>
-      </c>
+      <c r="C214" s="6"/>
     </row>
     <row r="215" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B215" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C215" s="5" t="s">
-        <v>13</v>
-      </c>
+      <c r="C215" s="6"/>
     </row>
     <row r="216" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B216" s="3" t="s">
@@ -2226,17 +2234,12 @@
       <c r="B218" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C218" s="5" t="s">
-        <v>13</v>
-      </c>
+      <c r="C218" s="6"/>
     </row>
     <row r="219" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B219" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C219" s="5" t="s">
-        <v>13</v>
-      </c>
     </row>
     <row r="220" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B220" s="3" t="s">
@@ -2247,13 +2250,10 @@
       <c r="B221" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C221" s="5" t="s">
-        <v>13</v>
-      </c>
     </row>
     <row r="222" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A222" s="4">
-        <v>46046</v>
+        <v>46047</v>
       </c>
       <c r="B222" s="7" t="s">
         <v>3</v>
@@ -2341,7 +2341,7 @@
     </row>
     <row r="233" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A233" s="4">
-        <v>46045</v>
+        <v>46046</v>
       </c>
       <c r="B233" s="7" t="s">
         <v>3</v>
@@ -2410,6 +2410,9 @@
       <c r="B241" s="3" t="s">
         <v>11</v>
       </c>
+      <c r="C241" s="5" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="242" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B242" s="3" t="s">
@@ -2426,7 +2429,7 @@
     </row>
     <row r="244" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A244" s="4">
-        <v>46044</v>
+        <v>46045</v>
       </c>
       <c r="B244" s="7" t="s">
         <v>3</v>
@@ -2495,9 +2498,6 @@
       <c r="B252" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C252" s="5" t="s">
-        <v>13</v>
-      </c>
     </row>
     <row r="253" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B253" s="3" t="s">
@@ -2505,19 +2505,19 @@
       </c>
     </row>
     <row r="254" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A254" s="4">
-        <v>46043</v>
-      </c>
-      <c r="B254" s="7" t="s">
+      <c r="B254" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C254" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="255" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A255" s="4">
+        <v>46044</v>
+      </c>
+      <c r="B255" s="7" t="s">
         <v>3</v>
-      </c>
-      <c r="C254" s="5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="255" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B255" s="3" t="s">
-        <v>4</v>
       </c>
       <c r="C255" s="5" t="s">
         <v>13</v>
@@ -2525,7 +2525,7 @@
     </row>
     <row r="256" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B256" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C256" s="5" t="s">
         <v>13</v>
@@ -2533,7 +2533,7 @@
     </row>
     <row r="257" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B257" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C257" s="5" t="s">
         <v>13</v>
@@ -2541,7 +2541,7 @@
     </row>
     <row r="258" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B258" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C258" s="5" t="s">
         <v>13</v>
@@ -2549,7 +2549,7 @@
     </row>
     <row r="259" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B259" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C259" s="5" t="s">
         <v>13</v>
@@ -2557,7 +2557,7 @@
     </row>
     <row r="260" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B260" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C260" s="5" t="s">
         <v>13</v>
@@ -2565,7 +2565,7 @@
     </row>
     <row r="261" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B261" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C261" s="5" t="s">
         <v>13</v>
@@ -2573,7 +2573,7 @@
     </row>
     <row r="262" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B262" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C262" s="5" t="s">
         <v>13</v>
@@ -2581,23 +2581,23 @@
     </row>
     <row r="263" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B263" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C263" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="264" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B264" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="264" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A264" s="4">
-        <v>46042</v>
-      </c>
-      <c r="B264" s="7" t="s">
+    <row r="265" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A265" s="4">
+        <v>46043</v>
+      </c>
+      <c r="B265" s="7" t="s">
         <v>3</v>
-      </c>
-      <c r="C264" s="5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="265" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B265" s="3" t="s">
-        <v>4</v>
       </c>
       <c r="C265" s="5" t="s">
         <v>13</v>
@@ -2605,7 +2605,7 @@
     </row>
     <row r="266" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B266" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C266" s="5" t="s">
         <v>13</v>
@@ -2613,7 +2613,7 @@
     </row>
     <row r="267" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B267" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C267" s="5" t="s">
         <v>13</v>
@@ -2621,7 +2621,7 @@
     </row>
     <row r="268" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B268" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C268" s="5" t="s">
         <v>13</v>
@@ -2629,7 +2629,7 @@
     </row>
     <row r="269" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B269" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C269" s="5" t="s">
         <v>13</v>
@@ -2637,7 +2637,7 @@
     </row>
     <row r="270" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B270" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C270" s="5" t="s">
         <v>13</v>
@@ -2645,7 +2645,7 @@
     </row>
     <row r="271" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B271" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C271" s="5" t="s">
         <v>13</v>
@@ -2653,16 +2653,104 @@
     </row>
     <row r="272" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B272" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C272" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="273" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B273" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="273" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B273" s="3" t="s">
+      <c r="C273" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="274" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B274" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="274" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B274" s="3">
+    <row r="275" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A275" s="4">
+        <v>46042</v>
+      </c>
+      <c r="B275" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C275" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="276" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B276" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C276" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="277" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B277" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C277" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="278" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B278" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C278" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="279" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B279" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C279" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="280" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B280" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C280" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="281" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B281" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C281" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="282" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B282" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C282" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="283" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B283" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="284" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B284" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="285" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B285" s="3">
         <v>11</v>
       </c>
     </row>
